--- a/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
+++ b/InputData/io-model/DLIM/Domestic Leontief Inverse Matrix.xlsx
@@ -1,41 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\DLIM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-virginia\InputData\io-model\DLIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5EE77E-EC1D-4B59-80CA-783F76AEC076}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="OECD LEONTFD" sheetId="4" r:id="rId2"/>
-    <sheet name="DLIM" sheetId="2" r:id="rId3"/>
+    <sheet name="OECD LEONTFD" sheetId="2" r:id="rId2"/>
+    <sheet name="DLIM" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="147">
+  <si>
+    <t>DLIM Domestic Leontief Inverse Matrix</t>
+  </si>
   <si>
     <t>Source:</t>
   </si>
@@ -43,10 +32,70 @@
     <t>OECD</t>
   </si>
   <si>
+    <t>Input-Output Tables 2018 Edition (ISIC Rev. 4)</t>
+  </si>
+  <si>
+    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
+  </si>
+  <si>
+    <t>Variable: LEONTFD</t>
+  </si>
+  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>DLIM Domestic Leontief Inverse Matrix</t>
+    <t>OECD Stat directly provides Leontief inverse matrices, both total and domestic-only, for</t>
+  </si>
+  <si>
+    <t>64 countries and regions.</t>
+  </si>
+  <si>
+    <t>A domestic-only Leontief matrix filters out payments to foreign suppliers from the respending</t>
+  </si>
+  <si>
+    <t>calculations.  This type of Leontief matrix must be multiplied by a change in domestic (not total)</t>
+  </si>
+  <si>
+    <t>output by ISIC code, as it does not filter the direct output changes by which it is multiplied.</t>
+  </si>
+  <si>
+    <t>Conversely, a "Total" Leontief matrix must be multiplied by a change in total (not domestic)</t>
+  </si>
+  <si>
+    <t>output by ISIC code, as it cannot restore imports that were removed from the direct output changes</t>
+  </si>
+  <si>
+    <t>by which it is multiplied.</t>
+  </si>
+  <si>
+    <t>If you don't have a pre-calculated Leontief inverse matrix, you can calculate one from a standard</t>
+  </si>
+  <si>
+    <t>input-output table (e.g. direct purchases per dollar of output) using the following steps:</t>
+  </si>
+  <si>
+    <t>1. Ensure your input-output table (A) is square (the row headings are the same entities</t>
+  </si>
+  <si>
+    <t>as the column headings).  There should be no "total" or other special rows or columns.</t>
+  </si>
+  <si>
+    <t>2. Create an identity matrix (I) with the same dimensions as your input-output table.</t>
+  </si>
+  <si>
+    <t>3. Subtract your input-output table from the identity matrix (I - A).</t>
+  </si>
+  <si>
+    <t>4. Invert the matrix you just obtained (I-A)^-1.  This requries a matrix inversion operation,</t>
+  </si>
+  <si>
+    <t>which can be done in Excel with the MINVERSE function.</t>
+  </si>
+  <si>
+    <t>The result is the Leontief Inverse Matrix.  It should generally have values between 1 and 1.5 along</t>
+  </si>
+  <si>
+    <t>the diagonal and values between 0 and 0.3 elsewhere (usually between 0 and 0.1).</t>
   </si>
   <si>
     <t>Sorry, the query is too large to fit into the Excel cell. You will not be able to update your table with the .Stat Populator.</t>
@@ -193,9 +242,6 @@
     <t>From: (sector in row)</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DOM_01T03: Agriculture, forestry and fishing</t>
   </si>
   <si>
@@ -416,75 +462,12 @@
   </si>
   <si>
     <t>ISIC 97T98</t>
-  </si>
-  <si>
-    <t>https://stats.oecd.org/Index.aspx?DataSetCode=IOTS#</t>
-  </si>
-  <si>
-    <t>Input-Output Tables 2018 Edition (ISIC Rev. 4)</t>
-  </si>
-  <si>
-    <t>Variable: LEONTFD</t>
-  </si>
-  <si>
-    <t>OECD Stat directly provides Leontief inverse matrices, both total and domestic-only, for</t>
-  </si>
-  <si>
-    <t>64 countries and regions.</t>
-  </si>
-  <si>
-    <t>If you don't have a pre-calculated Leontief inverse matrix, you can calculate one from a standard</t>
-  </si>
-  <si>
-    <t>input-output table (e.g. direct purchases per dollar of output) using the following steps:</t>
-  </si>
-  <si>
-    <t>3. Subtract your input-output table from the identity matrix (I - A).</t>
-  </si>
-  <si>
-    <t>2. Create an identity matrix (I) with the same dimensions as your input-output table.</t>
-  </si>
-  <si>
-    <t>1. Ensure your input-output table (A) is square (the row headings are the same entities</t>
-  </si>
-  <si>
-    <t>4. Invert the matrix you just obtained (I-A)^-1.  This requries a matrix inversion operation,</t>
-  </si>
-  <si>
-    <t>which can be done in Excel with the MINVERSE function.</t>
-  </si>
-  <si>
-    <t>The result is the Leontief Inverse Matrix.  It should generally have values between 1 and 1.5 along</t>
-  </si>
-  <si>
-    <t>the diagonal and values between 0 and 0.3 elsewhere (usually between 0 and 0.1).</t>
-  </si>
-  <si>
-    <t>as the column headings).  There should be no "total" or other special rows or columns.</t>
-  </si>
-  <si>
-    <t>A domestic-only Leontief matrix filters out payments to foreign suppliers from the respending</t>
-  </si>
-  <si>
-    <t>calculations.  This type of Leontief matrix must be multiplied by a change in domestic (not total)</t>
-  </si>
-  <si>
-    <t>Conversely, a "Total" Leontief matrix must be multiplied by a change in total (not domestic)</t>
-  </si>
-  <si>
-    <t>output by ISIC code, as it does not filter the direct output changes by which it is multiplied.</t>
-  </si>
-  <si>
-    <t>output by ISIC code, as it cannot restore imports that were removed from the direct output changes</t>
-  </si>
-  <si>
-    <t>by which it is multiplied.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
@@ -619,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -634,19 +617,6 @@
       <right style="thin">
         <color rgb="FFC0C0C0"/>
       </right>
-      <top style="thin">
-        <color rgb="FFC0C0C0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFC0C0C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFC0C0C0"/>
-      </left>
-      <right/>
       <top style="thin">
         <color rgb="FFC0C0C0"/>
       </top>
@@ -682,10 +652,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -695,7 +665,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -722,43 +692,27 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{3ADF3FF5-E4D2-4BC8-9960-7408DCCB591E}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1035,597 +989,522 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.59765625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="B21" s="27"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="17"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS" xr:uid="{2276F9C6-DAE6-41B4-8E7B-D6FA23893E00}"/>
+    <hyperlink ref="B6" r:id="rId1" display="https://stats.oecd.org/Index.aspx?DataSetCode=IOTS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44A57C18-4B62-44E2-8188-ED03EDB100B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="2.42578125" style="7" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="27.3984375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="2.3984375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="9.1328125" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="9.1328125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" hidden="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="e">
         <f ca="1">DotStatQuery(B1)</f>
         <v>#NAME?</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" ht="23.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="17"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="19"/>
       <c r="C3" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="25"/>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="19"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
-      <c r="Y4" s="19"/>
-      <c r="Z4" s="19"/>
-      <c r="AA4" s="19"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="19"/>
-      <c r="AD4" s="19"/>
-      <c r="AE4" s="19"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="19"/>
-      <c r="AH4" s="19"/>
-      <c r="AI4" s="19"/>
-      <c r="AJ4" s="19"/>
-      <c r="AK4" s="19"/>
-      <c r="AL4" s="20"/>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
-      <c r="AH5" s="19"/>
-      <c r="AI5" s="19"/>
-      <c r="AJ5" s="19"/>
-      <c r="AK5" s="19"/>
-      <c r="AL5" s="20"/>
-    </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="19"/>
-      <c r="AJ6" s="19"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="20"/>
-    </row>
-    <row r="7" spans="1:38" ht="126" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="22"/>
+        <v>28</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="21"/>
+      <c r="AA3" s="21"/>
+      <c r="AB3" s="21"/>
+      <c r="AC3" s="21"/>
+      <c r="AD3" s="21"/>
+      <c r="AE3" s="21"/>
+      <c r="AF3" s="21"/>
+      <c r="AG3" s="21"/>
+      <c r="AH3" s="21"/>
+      <c r="AI3" s="21"/>
+      <c r="AJ3" s="21"/>
+      <c r="AK3" s="21"/>
+      <c r="AL3" s="19"/>
+    </row>
+    <row r="4" spans="1:38" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
+      <c r="AB4" s="21"/>
+      <c r="AC4" s="21"/>
+      <c r="AD4" s="21"/>
+      <c r="AE4" s="21"/>
+      <c r="AF4" s="21"/>
+      <c r="AG4" s="21"/>
+      <c r="AH4" s="21"/>
+      <c r="AI4" s="21"/>
+      <c r="AJ4" s="21"/>
+      <c r="AK4" s="21"/>
+      <c r="AL4" s="19"/>
+    </row>
+    <row r="5" spans="1:38" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="21"/>
+      <c r="AG5" s="21"/>
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="19"/>
+    </row>
+    <row r="6" spans="1:38" ht="14.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
+      <c r="AB6" s="21"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="21"/>
+      <c r="AE6" s="21"/>
+      <c r="AF6" s="21"/>
+      <c r="AG6" s="21"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="21"/>
+      <c r="AJ6" s="21"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="19"/>
+    </row>
+    <row r="7" spans="1:38" ht="126" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="19"/>
       <c r="C7" s="9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="P7" s="9" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="AC7" s="9" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AD7" s="9" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="9" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AF7" s="9" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AG7" s="9" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="AI7" s="9" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="AJ7" s="9" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="AK7" s="9" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="AL7" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="N8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="P8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="V8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="W8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="X8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AC8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AE8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AJ8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="AL8" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11"/>
+      <c r="AF8" s="11"/>
+      <c r="AG8" s="11"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="11"/>
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="11"/>
+      <c r="AL8" s="11"/>
+    </row>
+    <row r="9" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="13">
         <v>1.18</v>
       </c>
@@ -1735,13 +1614,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="14">
         <v>0.02</v>
       </c>
@@ -1851,13 +1728,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="B11" s="11"/>
       <c r="C11" s="13">
         <v>2E-3</v>
       </c>
@@ -1967,13 +1842,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="B12" s="11"/>
       <c r="C12" s="14">
         <v>1.4E-2</v>
       </c>
@@ -2083,13 +1956,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B13" s="11"/>
       <c r="C13" s="13">
         <v>0.09</v>
       </c>
@@ -2199,13 +2070,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="B14" s="11"/>
       <c r="C14" s="14">
         <v>1E-3</v>
       </c>
@@ -2315,13 +2184,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="B15" s="11"/>
       <c r="C15" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -2431,13 +2298,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B16" s="11"/>
       <c r="C16" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -2547,13 +2412,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B17" s="11"/>
       <c r="C17" s="13">
         <v>0.03</v>
       </c>
@@ -2663,13 +2526,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B18" s="11"/>
       <c r="C18" s="14">
         <v>4.3999999999999997E-2</v>
       </c>
@@ -2779,13 +2640,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B19" s="11"/>
       <c r="C19" s="13">
         <v>8.0000000000000002E-3</v>
       </c>
@@ -2895,13 +2754,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B20" s="11"/>
       <c r="C20" s="14">
         <v>2E-3</v>
       </c>
@@ -3011,13 +2868,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="B21" s="11"/>
       <c r="C21" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -3127,13 +2982,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B22" s="11"/>
       <c r="C22" s="14">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -3243,13 +3096,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B23" s="11"/>
       <c r="C23" s="13">
         <v>4.0000000000000001E-3</v>
       </c>
@@ -3359,13 +3210,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B24" s="11"/>
       <c r="C24" s="14">
         <v>2E-3</v>
       </c>
@@ -3475,13 +3324,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="B25" s="11"/>
       <c r="C25" s="13">
         <v>1.4E-2</v>
       </c>
@@ -3591,13 +3438,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B26" s="11"/>
       <c r="C26" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -3707,13 +3552,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="B27" s="11"/>
       <c r="C27" s="13">
         <v>1E-3</v>
       </c>
@@ -3823,13 +3666,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="42" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="42" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="B28" s="11"/>
       <c r="C28" s="14">
         <v>2E-3</v>
       </c>
@@ -3939,13 +3780,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B29" s="11"/>
       <c r="C29" s="13">
         <v>1.2999999999999999E-2</v>
       </c>
@@ -4055,13 +3894,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B30" s="11"/>
       <c r="C30" s="14">
         <v>1E-3</v>
       </c>
@@ -4171,13 +4008,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B31" s="11"/>
       <c r="C31" s="13">
         <v>0.155</v>
       </c>
@@ -4287,13 +4122,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="B32" s="11"/>
       <c r="C32" s="14">
         <v>4.5999999999999999E-2</v>
       </c>
@@ -4403,13 +4236,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B33" s="11"/>
       <c r="C33" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -4519,13 +4350,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B34" s="11"/>
       <c r="C34" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4635,13 +4464,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="B35" s="11"/>
       <c r="C35" s="13">
         <v>0.01</v>
       </c>
@@ -4751,13 +4578,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B36" s="11"/>
       <c r="C36" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
@@ -4867,13 +4692,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B37" s="11"/>
       <c r="C37" s="13">
         <v>0.09</v>
       </c>
@@ -4983,13 +4806,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="B38" s="11"/>
       <c r="C38" s="14">
         <v>3.5999999999999997E-2</v>
       </c>
@@ -5099,13 +4920,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B39" s="11"/>
       <c r="C39" s="13">
         <v>0.10100000000000001</v>
       </c>
@@ -5215,13 +5034,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B40" s="11"/>
       <c r="C40" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
@@ -5331,13 +5148,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B41" s="11"/>
       <c r="C41" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
@@ -5447,13 +5262,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B42" s="11"/>
       <c r="C42" s="14">
         <v>0</v>
       </c>
@@ -5563,13 +5376,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B43" s="11"/>
       <c r="C43" s="13">
         <v>2E-3</v>
       </c>
@@ -5679,13 +5490,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="31.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B44" s="11"/>
       <c r="C44" s="14">
         <v>0</v>
       </c>
@@ -5795,13 +5604,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>52</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="B45" s="11"/>
       <c r="C45" s="13">
         <v>1.9279999999999999</v>
       </c>
@@ -5911,9 +5718,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A46" s="15" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5929,9 +5736,9 @@
     <mergeCell ref="C5:AL5"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{7DA50851-4BF2-4630-B82E-9D2205BE58A5}"/>
-    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[LEONTFD]&amp;ShowOnWeb=true&amp;Lang=en" xr:uid="{AB11A4E7-43D6-46DB-BE8F-03CFB874B84E}"/>
-    <hyperlink ref="A46" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018" xr:uid="{3CDF4E8B-4972-454C-B600-52C725F46283}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="C3" r:id="rId2" display="http://localhost/OECDStat_Metadata/ShowMetadata.ashx?Dataset=IOTSI4_2018&amp;Coords=[VAR].[LEONTFD]&amp;ShowOnWeb=true&amp;Lang=en"/>
+    <hyperlink ref="A46" r:id="rId3" display="https://stats-3.oecd.org/index.aspx?DatasetCode=IOTSI4_2018"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5939,7 +5746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5947,248 +5754,217 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="37" width="10.140625" customWidth="1"/>
+    <col min="1" max="37" width="10.1328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:37" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="V1" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="W1" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="AA1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB1" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="AC1" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AD1" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE1" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="AF1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="AH1" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK1" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI1" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ1" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>91</v>
-      </c>
       <c r="B2">
-        <f>'OECD LEONTFD'!C9</f>
-        <v>1.18</v>
+        <v>1.0477000211343941</v>
       </c>
       <c r="C2">
-        <f>'OECD LEONTFD'!D9</f>
-        <v>1E-3</v>
+        <v>8.2140975669345167E-6</v>
       </c>
       <c r="D2">
-        <f>'OECD LEONTFD'!E9</f>
-        <v>1E-3</v>
+        <v>3.2356076595727069E-3</v>
       </c>
       <c r="E2">
-        <f>'OECD LEONTFD'!F9</f>
-        <v>1E-3</v>
+        <v>1.2053276890669671E-3</v>
       </c>
       <c r="F2">
-        <f>'OECD LEONTFD'!G9</f>
-        <v>0.28799999999999998</v>
+        <v>8.7786894510745311E-2</v>
       </c>
       <c r="G2">
-        <f>'OECD LEONTFD'!H9</f>
-        <v>3.4000000000000002E-2</v>
+        <v>1.746715974046521E-3</v>
       </c>
       <c r="H2">
-        <f>'OECD LEONTFD'!I9</f>
-        <v>0.128</v>
+        <v>4.6693988006095283E-2</v>
       </c>
       <c r="I2">
-        <f>'OECD LEONTFD'!J9</f>
-        <v>2.7E-2</v>
+        <v>4.8304591314496806E-3</v>
       </c>
       <c r="J2">
-        <f>'OECD LEONTFD'!K9</f>
-        <v>1E-3</v>
+        <v>3.9782547232655019E-4</v>
       </c>
       <c r="K2">
-        <f>'OECD LEONTFD'!L9</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.4350990978936841E-3</v>
       </c>
       <c r="L2">
-        <f>'OECD LEONTFD'!M9</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.9627013167240479E-3</v>
       </c>
       <c r="M2">
-        <f>'OECD LEONTFD'!N9</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.078660631749035E-3</v>
       </c>
       <c r="N2">
-        <f>'OECD LEONTFD'!O9</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.8477631032800869E-4</v>
       </c>
       <c r="O2">
-        <f>'OECD LEONTFD'!P9</f>
-        <v>2E-3</v>
+        <v>2.13608491197284E-4</v>
       </c>
       <c r="P2">
-        <f>'OECD LEONTFD'!Q9</f>
-        <v>1E-3</v>
+        <v>5.5989606552028387E-5</v>
       </c>
       <c r="Q2">
-        <f>'OECD LEONTFD'!R9</f>
-        <v>2E-3</v>
+        <v>3.0933460945250152E-4</v>
       </c>
       <c r="R2">
-        <f>'OECD LEONTFD'!S9</f>
-        <v>2E-3</v>
+        <v>3.8581491133085128E-4</v>
       </c>
       <c r="S2">
-        <f>'OECD LEONTFD'!T9</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.203765428152082E-3</v>
       </c>
       <c r="T2">
-        <f>'OECD LEONTFD'!U9</f>
-        <v>2E-3</v>
+        <v>3.9313315384311157E-5</v>
       </c>
       <c r="U2">
-        <f>'OECD LEONTFD'!V9</f>
-        <v>1.4E-2</v>
+        <v>2.4411587452788058E-3</v>
       </c>
       <c r="V2">
-        <f>'OECD LEONTFD'!W9</f>
-        <v>2E-3</v>
+        <v>2.445211981342617E-4</v>
       </c>
       <c r="W2">
-        <f>'OECD LEONTFD'!X9</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.828737701575166E-3</v>
       </c>
       <c r="X2">
-        <f>'OECD LEONTFD'!Y9</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.3164306945610535E-4</v>
       </c>
       <c r="Y2">
-        <f>'OECD LEONTFD'!Z9</f>
-        <v>2E-3</v>
+        <v>5.7159872387333279E-4</v>
       </c>
       <c r="Z2">
-        <f>'OECD LEONTFD'!AA9</f>
-        <v>3.4000000000000002E-2</v>
+        <v>9.9451108206904306E-3</v>
       </c>
       <c r="AA2">
-        <f>'OECD LEONTFD'!AB9</f>
-        <v>1E-3</v>
+        <v>6.0401961159358402E-5</v>
       </c>
       <c r="AB2">
-        <f>'OECD LEONTFD'!AC9</f>
-        <v>1E-3</v>
+        <v>2.0034474682305859E-4</v>
       </c>
       <c r="AC2">
-        <f>'OECD LEONTFD'!AD9</f>
-        <v>1E-3</v>
+        <v>1.8490480887577501E-4</v>
       </c>
       <c r="AD2">
-        <f>'OECD LEONTFD'!AE9</f>
-        <v>1E-3</v>
+        <v>1.0584063995546291E-4</v>
       </c>
       <c r="AE2">
-        <f>'OECD LEONTFD'!AF9</f>
-        <v>1E-3</v>
+        <v>1.7229831062413631E-4</v>
       </c>
       <c r="AF2">
-        <f>'OECD LEONTFD'!AG9</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.705307788600062E-4</v>
       </c>
       <c r="AG2">
         <f>'OECD LEONTFD'!AH9</f>
@@ -6211,133 +5987,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B3">
-        <f>'OECD LEONTFD'!C10</f>
-        <v>0.02</v>
+        <v>5.8504865894641898E-5</v>
       </c>
       <c r="C3">
-        <f>'OECD LEONTFD'!D10</f>
-        <v>1.0780000000000001</v>
+        <v>1.000347767982414</v>
       </c>
       <c r="D3">
-        <f>'OECD LEONTFD'!E10</f>
-        <v>0.10199999999999999</v>
+        <v>9.2165550722105721E-4</v>
       </c>
       <c r="E3">
-        <f>'OECD LEONTFD'!F10</f>
-        <v>0.12</v>
+        <v>2.7326801763100312E-4</v>
       </c>
       <c r="F3">
-        <f>'OECD LEONTFD'!G10</f>
-        <v>0.02</v>
+        <v>4.4485639522031867E-5</v>
       </c>
       <c r="G3">
-        <f>'OECD LEONTFD'!H10</f>
-        <v>8.9999999999999993E-3</v>
+        <v>8.920748071375059E-6</v>
       </c>
       <c r="H3">
-        <f>'OECD LEONTFD'!I10</f>
-        <v>1.0999999999999999E-2</v>
+        <v>7.019405780402643E-5</v>
       </c>
       <c r="I3">
-        <f>'OECD LEONTFD'!J10</f>
-        <v>1.4E-2</v>
+        <v>4.3142838640309752E-5</v>
       </c>
       <c r="J3">
-        <f>'OECD LEONTFD'!K10</f>
-        <v>0.312</v>
+        <v>2.5634312930230961E-2</v>
       </c>
       <c r="K3">
-        <f>'OECD LEONTFD'!L10</f>
-        <v>4.1000000000000002E-2</v>
+        <v>1.5804439150302941E-4</v>
       </c>
       <c r="L3">
-        <f>'OECD LEONTFD'!M10</f>
-        <v>1.2E-2</v>
+        <v>7.9220759943257903E-5</v>
       </c>
       <c r="M3">
-        <f>'OECD LEONTFD'!N10</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.7923167407805229E-4</v>
       </c>
       <c r="N3">
-        <f>'OECD LEONTFD'!O10</f>
-        <v>7.2999999999999995E-2</v>
+        <v>2.3738128494995881E-4</v>
       </c>
       <c r="O3">
-        <f>'OECD LEONTFD'!P10</f>
-        <v>1.4E-2</v>
+        <v>5.2618905490506472E-5</v>
       </c>
       <c r="P3">
-        <f>'OECD LEONTFD'!Q10</f>
-        <v>2E-3</v>
+        <v>4.7071241069711472E-6</v>
       </c>
       <c r="Q3">
-        <f>'OECD LEONTFD'!R10</f>
-        <v>0.01</v>
+        <v>4.6269950957675581E-5</v>
       </c>
       <c r="R3">
-        <f>'OECD LEONTFD'!S10</f>
-        <v>8.9999999999999993E-3</v>
+        <v>3.9536392658457888E-5</v>
       </c>
       <c r="S3">
-        <f>'OECD LEONTFD'!T10</f>
-        <v>8.0000000000000002E-3</v>
+        <v>5.6436254044189507E-5</v>
       </c>
       <c r="T3">
-        <f>'OECD LEONTFD'!U10</f>
-        <v>0.01</v>
+        <v>3.6906856647166392E-6</v>
       </c>
       <c r="U3">
-        <f>'OECD LEONTFD'!V10</f>
-        <v>0.01</v>
+        <v>3.1158534839425429E-5</v>
       </c>
       <c r="V3">
-        <f>'OECD LEONTFD'!W10</f>
-        <v>7.0000000000000007E-2</v>
+        <v>2.9300653899657241E-3</v>
       </c>
       <c r="W3">
-        <f>'OECD LEONTFD'!X10</f>
-        <v>1.2E-2</v>
+        <v>8.249748413181666E-5</v>
       </c>
       <c r="X3">
-        <f>'OECD LEONTFD'!Y10</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.9233177721720169E-5</v>
       </c>
       <c r="Y3">
-        <f>'OECD LEONTFD'!Z10</f>
-        <v>3.1E-2</v>
+        <v>1.7854390304457331E-4</v>
       </c>
       <c r="Z3">
-        <f>'OECD LEONTFD'!AA10</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.913752419045035E-5</v>
       </c>
       <c r="AA3">
-        <f>'OECD LEONTFD'!AB10</f>
-        <v>2E-3</v>
+        <v>3.9248998855922732E-6</v>
       </c>
       <c r="AB3">
-        <f>'OECD LEONTFD'!AC10</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.547008629977786E-5</v>
       </c>
       <c r="AC3">
-        <f>'OECD LEONTFD'!AD10</f>
-        <v>3.0000000000000001E-3</v>
+        <v>9.447501147719456E-6</v>
       </c>
       <c r="AD3">
-        <f>'OECD LEONTFD'!AE10</f>
-        <v>2E-3</v>
+        <v>2.3533238902691802E-5</v>
       </c>
       <c r="AE3">
-        <f>'OECD LEONTFD'!AF10</f>
-        <v>2E-3</v>
+        <v>5.9686343567550607E-5</v>
       </c>
       <c r="AF3">
-        <f>'OECD LEONTFD'!AG10</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.1501502224655372E-6</v>
       </c>
       <c r="AG3">
         <f>'OECD LEONTFD'!AH10</f>
@@ -6360,133 +6105,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="B4">
-        <f>'OECD LEONTFD'!C11</f>
-        <v>2E-3</v>
+        <v>4.3193030446949934E-3</v>
       </c>
       <c r="C4">
-        <f>'OECD LEONTFD'!D11</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.6112672003411781E-4</v>
       </c>
       <c r="D4">
-        <f>'OECD LEONTFD'!E11</f>
-        <v>1.0149999999999999</v>
+        <v>1.2706473833391461</v>
       </c>
       <c r="E4">
-        <f>'OECD LEONTFD'!F11</f>
-        <v>1.0999999999999999E-2</v>
+        <v>7.8629269244527792E-3</v>
       </c>
       <c r="F4">
-        <f>'OECD LEONTFD'!G11</f>
-        <v>2E-3</v>
+        <v>3.25816644910467E-3</v>
       </c>
       <c r="G4">
-        <f>'OECD LEONTFD'!H11</f>
-        <v>2E-3</v>
+        <v>3.8109682319313457E-4</v>
       </c>
       <c r="H4">
-        <f>'OECD LEONTFD'!I11</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.2404010290335932E-3</v>
       </c>
       <c r="I4">
-        <f>'OECD LEONTFD'!J11</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.285554160132805E-3</v>
       </c>
       <c r="J4">
-        <f>'OECD LEONTFD'!K11</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.539022962246105E-2</v>
       </c>
       <c r="K4">
-        <f>'OECD LEONTFD'!L11</f>
-        <v>1.0999999999999999E-2</v>
+        <v>5.8578766640331728E-3</v>
       </c>
       <c r="L4">
-        <f>'OECD LEONTFD'!M11</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.0119072483513671E-3</v>
       </c>
       <c r="M4">
-        <f>'OECD LEONTFD'!N11</f>
-        <v>5.6000000000000001E-2</v>
+        <v>0.11984807002332119</v>
       </c>
       <c r="N4">
-        <f>'OECD LEONTFD'!O11</f>
-        <v>8.2000000000000003E-2</v>
+        <v>0.1124060725005717</v>
       </c>
       <c r="O4">
-        <f>'OECD LEONTFD'!P11</f>
-        <v>1.4E-2</v>
+        <v>8.7958737390340033E-3</v>
       </c>
       <c r="P4">
-        <f>'OECD LEONTFD'!Q11</f>
-        <v>1E-3</v>
+        <v>2.7935411765359351E-4</v>
       </c>
       <c r="Q4">
-        <f>'OECD LEONTFD'!R11</f>
-        <v>8.0000000000000002E-3</v>
+        <v>7.1570910621996031E-3</v>
       </c>
       <c r="R4">
-        <f>'OECD LEONTFD'!S11</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.9992203988456522E-3</v>
       </c>
       <c r="S4">
-        <f>'OECD LEONTFD'!T11</f>
-        <v>6.0000000000000001E-3</v>
+        <v>8.7041820110906089E-3</v>
       </c>
       <c r="T4">
-        <f>'OECD LEONTFD'!U11</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.4850687143704052E-4</v>
       </c>
       <c r="U4">
-        <f>'OECD LEONTFD'!V11</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.5419174103008539E-3</v>
       </c>
       <c r="V4">
-        <f>'OECD LEONTFD'!W11</f>
-        <v>2E-3</v>
+        <v>4.2418903634662733E-2</v>
       </c>
       <c r="W4">
-        <f>'OECD LEONTFD'!X11</f>
-        <v>1.2E-2</v>
+        <v>1.564235194523848E-2</v>
       </c>
       <c r="X4">
-        <f>'OECD LEONTFD'!Y11</f>
-        <v>1E-3</v>
+        <v>4.6279120541550459E-4</v>
       </c>
       <c r="Y4">
-        <f>'OECD LEONTFD'!Z11</f>
-        <v>1E-3</v>
+        <v>9.6127993797926413E-4</v>
       </c>
       <c r="Z4">
-        <f>'OECD LEONTFD'!AA11</f>
-        <v>1E-3</v>
+        <v>1.8330960780416289E-3</v>
       </c>
       <c r="AA4">
-        <f>'OECD LEONTFD'!AB11</f>
-        <v>0</v>
+        <v>1.0420624028171861E-4</v>
       </c>
       <c r="AB4">
-        <f>'OECD LEONTFD'!AC11</f>
-        <v>0</v>
+        <v>9.960402680077576E-4</v>
       </c>
       <c r="AC4">
-        <f>'OECD LEONTFD'!AD11</f>
-        <v>0</v>
+        <v>7.8892302599380614E-4</v>
       </c>
       <c r="AD4">
-        <f>'OECD LEONTFD'!AE11</f>
-        <v>0</v>
+        <v>2.10590185751749E-4</v>
       </c>
       <c r="AE4">
-        <f>'OECD LEONTFD'!AF11</f>
-        <v>1E-3</v>
+        <v>1.10126461128074E-3</v>
       </c>
       <c r="AF4">
-        <f>'OECD LEONTFD'!AG11</f>
-        <v>1E-3</v>
+        <v>2.1882775474988981E-4</v>
       </c>
       <c r="AG4">
         <f>'OECD LEONTFD'!AH11</f>
@@ -6509,133 +6223,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B5">
-        <f>'OECD LEONTFD'!C12</f>
-        <v>1.4E-2</v>
+        <v>9.1905676060215461E-6</v>
       </c>
       <c r="C5">
-        <f>'OECD LEONTFD'!D12</f>
-        <v>0.122</v>
+        <v>1.15995450943194E-4</v>
       </c>
       <c r="D5">
-        <f>'OECD LEONTFD'!E12</f>
-        <v>0.183</v>
+        <v>2.701501098631869E-3</v>
       </c>
       <c r="E5">
-        <f>'OECD LEONTFD'!F12</f>
-        <v>1.22</v>
+        <v>1.001063962200011</v>
       </c>
       <c r="F5">
-        <f>'OECD LEONTFD'!G12</f>
-        <v>0.02</v>
+        <v>6.9355570856072754E-6</v>
       </c>
       <c r="G5">
-        <f>'OECD LEONTFD'!H12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>8.1204612308984525E-7</v>
       </c>
       <c r="H5">
-        <f>'OECD LEONTFD'!I12</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.7754406765720621E-6</v>
       </c>
       <c r="I5">
-        <f>'OECD LEONTFD'!J12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.9922320267310264E-6</v>
       </c>
       <c r="J5">
-        <f>'OECD LEONTFD'!K12</f>
-        <v>3.6999999999999998E-2</v>
+        <v>3.5682292597665791E-5</v>
       </c>
       <c r="K5">
-        <f>'OECD LEONTFD'!L12</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.247562074649599E-5</v>
       </c>
       <c r="L5">
-        <f>'OECD LEONTFD'!M12</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.4171258764271674E-6</v>
       </c>
       <c r="M5">
-        <f>'OECD LEONTFD'!N12</f>
-        <v>1.2999999999999999E-2</v>
+        <v>2.5482248892464939E-4</v>
       </c>
       <c r="N5">
-        <f>'OECD LEONTFD'!O12</f>
-        <v>0.03</v>
+        <v>2.390087496896704E-4</v>
       </c>
       <c r="O5">
-        <f>'OECD LEONTFD'!P12</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.871225364895322E-5</v>
       </c>
       <c r="P5">
-        <f>'OECD LEONTFD'!Q12</f>
-        <v>1E-3</v>
+        <v>5.9729403722032455E-7</v>
       </c>
       <c r="Q5">
-        <f>'OECD LEONTFD'!R12</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.522424134673715E-5</v>
       </c>
       <c r="R5">
-        <f>'OECD LEONTFD'!S12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.063887496646483E-5</v>
       </c>
       <c r="S5">
-        <f>'OECD LEONTFD'!T12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.8518169386019789E-5</v>
       </c>
       <c r="T5">
-        <f>'OECD LEONTFD'!U12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>9.5494489931978721E-7</v>
       </c>
       <c r="U5">
-        <f>'OECD LEONTFD'!V12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.411737767406362E-6</v>
       </c>
       <c r="V5">
-        <f>'OECD LEONTFD'!W12</f>
-        <v>0.01</v>
+        <v>9.0526792557289404E-5</v>
       </c>
       <c r="W5">
-        <f>'OECD LEONTFD'!X12</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.3268124708497612E-5</v>
       </c>
       <c r="X5">
-        <f>'OECD LEONTFD'!Y12</f>
-        <v>1E-3</v>
+        <v>9.9211394040346525E-7</v>
       </c>
       <c r="Y5">
-        <f>'OECD LEONTFD'!Z12</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.069684455115802E-6</v>
       </c>
       <c r="Z5">
-        <f>'OECD LEONTFD'!AA12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>3.9125802707009929E-6</v>
       </c>
       <c r="AA5">
-        <f>'OECD LEONTFD'!AB12</f>
-        <v>1E-3</v>
+        <v>2.2447610112818139E-7</v>
       </c>
       <c r="AB5">
-        <f>'OECD LEONTFD'!AC12</f>
-        <v>1E-3</v>
+        <v>2.126300143182667E-6</v>
       </c>
       <c r="AC5">
-        <f>'OECD LEONTFD'!AD12</f>
-        <v>1E-3</v>
+        <v>1.683198552935764E-6</v>
       </c>
       <c r="AD5">
-        <f>'OECD LEONTFD'!AE12</f>
-        <v>0</v>
+        <v>4.5636420400137902E-7</v>
       </c>
       <c r="AE5">
-        <f>'OECD LEONTFD'!AF12</f>
-        <v>1E-3</v>
+        <v>2.3519367822019849E-6</v>
       </c>
       <c r="AF5">
-        <f>'OECD LEONTFD'!AG12</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.3827253676901582E-7</v>
       </c>
       <c r="AG5">
         <f>'OECD LEONTFD'!AH12</f>
@@ -6658,133 +6341,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B6">
-        <f>'OECD LEONTFD'!C13</f>
-        <v>0.09</v>
+        <v>0.13492807174623919</v>
       </c>
       <c r="C6">
-        <f>'OECD LEONTFD'!D13</f>
-        <v>1E-3</v>
+        <v>3.4867625954016603E-5</v>
       </c>
       <c r="D6">
-        <f>'OECD LEONTFD'!E13</f>
-        <v>1E-3</v>
+        <v>2.4960008389720801E-3</v>
       </c>
       <c r="E6">
-        <f>'OECD LEONTFD'!F13</f>
-        <v>1E-3</v>
+        <v>3.0423961651311528E-3</v>
       </c>
       <c r="F6">
-        <f>'OECD LEONTFD'!G13</f>
-        <v>1.145</v>
+        <v>1.3482308928172839</v>
       </c>
       <c r="G6">
-        <f>'OECD LEONTFD'!H13</f>
-        <v>1.4E-2</v>
+        <v>6.3188024225622648E-3</v>
       </c>
       <c r="H6">
-        <f>'OECD LEONTFD'!I13</f>
-        <v>1.6E-2</v>
+        <v>7.6545376100231027E-3</v>
       </c>
       <c r="I6">
-        <f>'OECD LEONTFD'!J13</f>
-        <v>1.4E-2</v>
+        <v>9.1015682106258804E-3</v>
       </c>
       <c r="J6">
-        <f>'OECD LEONTFD'!K13</f>
-        <v>2E-3</v>
+        <v>3.8467343117427732E-3</v>
       </c>
       <c r="K6">
-        <f>'OECD LEONTFD'!L13</f>
-        <v>1.7000000000000001E-2</v>
+        <v>1.114213452492762E-2</v>
       </c>
       <c r="L6">
-        <f>'OECD LEONTFD'!M13</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.5257871007921301E-3</v>
       </c>
       <c r="M6">
-        <f>'OECD LEONTFD'!N13</f>
-        <v>5.0000000000000001E-3</v>
+        <v>6.4103235631251237E-3</v>
       </c>
       <c r="N6">
-        <f>'OECD LEONTFD'!O13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.0921674418955521E-3</v>
       </c>
       <c r="O6">
-        <f>'OECD LEONTFD'!P13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.1793421528113601E-4</v>
       </c>
       <c r="P6">
-        <f>'OECD LEONTFD'!Q13</f>
-        <v>1E-3</v>
+        <v>1.086444015223031E-4</v>
       </c>
       <c r="Q6">
-        <f>'OECD LEONTFD'!R13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.3821582361739421E-4</v>
       </c>
       <c r="R6">
-        <f>'OECD LEONTFD'!S13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.5282574251894758E-4</v>
       </c>
       <c r="S6">
-        <f>'OECD LEONTFD'!T13</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.1826275422106129E-3</v>
       </c>
       <c r="T6">
-        <f>'OECD LEONTFD'!U13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.1390128857434955E-5</v>
       </c>
       <c r="U6">
-        <f>'OECD LEONTFD'!V13</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.055893627895406E-3</v>
       </c>
       <c r="V6">
-        <f>'OECD LEONTFD'!W13</f>
-        <v>2E-3</v>
+        <v>1.195274349185842E-3</v>
       </c>
       <c r="W6">
-        <f>'OECD LEONTFD'!X13</f>
-        <v>3.0000000000000001E-3</v>
+        <v>7.0162196028492323E-4</v>
       </c>
       <c r="X6">
-        <f>'OECD LEONTFD'!Y13</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.6085381627605378E-3</v>
       </c>
       <c r="Y6">
-        <f>'OECD LEONTFD'!Z13</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.1403015108051576E-3</v>
       </c>
       <c r="Z6">
-        <f>'OECD LEONTFD'!AA13</f>
-        <v>0.121</v>
+        <v>0.1237653793611968</v>
       </c>
       <c r="AA6">
-        <f>'OECD LEONTFD'!AB13</f>
-        <v>2E-3</v>
+        <v>4.1305638073665078E-4</v>
       </c>
       <c r="AB6">
-        <f>'OECD LEONTFD'!AC13</f>
-        <v>2E-3</v>
+        <v>9.7183234941395627E-4</v>
       </c>
       <c r="AC6">
-        <f>'OECD LEONTFD'!AD13</f>
-        <v>2E-3</v>
+        <v>8.0175784742943668E-4</v>
       </c>
       <c r="AD6">
-        <f>'OECD LEONTFD'!AE13</f>
-        <v>2E-3</v>
+        <v>9.9487251156901864E-4</v>
       </c>
       <c r="AE6">
-        <f>'OECD LEONTFD'!AF13</f>
-        <v>2E-3</v>
+        <v>7.0815289369788423E-4</v>
       </c>
       <c r="AF6">
-        <f>'OECD LEONTFD'!AG13</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.2157783092895771E-3</v>
       </c>
       <c r="AG6">
         <f>'OECD LEONTFD'!AH13</f>
@@ -6807,133 +6459,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B7">
-        <f>'OECD LEONTFD'!C14</f>
-        <v>1E-3</v>
+        <v>3.311283677605002E-4</v>
       </c>
       <c r="C7">
-        <f>'OECD LEONTFD'!D14</f>
-        <v>0</v>
+        <v>7.7085106729167392E-6</v>
       </c>
       <c r="D7">
-        <f>'OECD LEONTFD'!E14</f>
-        <v>0</v>
+        <v>1.000753784611434E-3</v>
       </c>
       <c r="E7">
-        <f>'OECD LEONTFD'!F14</f>
-        <v>0</v>
+        <v>5.701605925468343E-4</v>
       </c>
       <c r="F7">
-        <f>'OECD LEONTFD'!G14</f>
-        <v>1E-3</v>
+        <v>4.1331927545927973E-4</v>
       </c>
       <c r="G7">
-        <f>'OECD LEONTFD'!H14</f>
-        <v>1.0740000000000001</v>
+        <v>1.013525372496028</v>
       </c>
       <c r="H7">
-        <f>'OECD LEONTFD'!I14</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.8376881965975491E-3</v>
       </c>
       <c r="I7">
-        <f>'OECD LEONTFD'!J14</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.7837683322105961E-3</v>
       </c>
       <c r="J7">
-        <f>'OECD LEONTFD'!K14</f>
-        <v>0</v>
+        <v>4.1364372144155629E-4</v>
       </c>
       <c r="K7">
-        <f>'OECD LEONTFD'!L14</f>
-        <v>2E-3</v>
+        <v>1.5986153608912361E-4</v>
       </c>
       <c r="L7">
-        <f>'OECD LEONTFD'!M14</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.9984063574058353E-3</v>
       </c>
       <c r="M7">
-        <f>'OECD LEONTFD'!N14</f>
-        <v>2E-3</v>
+        <v>2.0685605041653428E-3</v>
       </c>
       <c r="N7">
-        <f>'OECD LEONTFD'!O14</f>
-        <v>1E-3</v>
+        <v>2.5795693721391433E-4</v>
       </c>
       <c r="O7">
-        <f>'OECD LEONTFD'!P14</f>
-        <v>1E-3</v>
+        <v>1.41734855391528E-4</v>
       </c>
       <c r="P7">
-        <f>'OECD LEONTFD'!Q14</f>
-        <v>0</v>
+        <v>2.4624852635941411E-5</v>
       </c>
       <c r="Q7">
-        <f>'OECD LEONTFD'!R14</f>
-        <v>1E-3</v>
+        <v>2.2787765061101249E-4</v>
       </c>
       <c r="R7">
-        <f>'OECD LEONTFD'!S14</f>
-        <v>2E-3</v>
+        <v>1.5800848222861351E-3</v>
       </c>
       <c r="S7">
-        <f>'OECD LEONTFD'!T14</f>
-        <v>4.0000000000000001E-3</v>
+        <v>9.7738681960196881E-3</v>
       </c>
       <c r="T7">
-        <f>'OECD LEONTFD'!U14</f>
-        <v>2E-3</v>
+        <v>3.414517072410763E-4</v>
       </c>
       <c r="U7">
-        <f>'OECD LEONTFD'!V14</f>
-        <v>1.0999999999999999E-2</v>
+        <v>6.9073093538588749E-3</v>
       </c>
       <c r="V7">
-        <f>'OECD LEONTFD'!W14</f>
-        <v>0</v>
+        <v>1.063765838655582E-4</v>
       </c>
       <c r="W7">
-        <f>'OECD LEONTFD'!X14</f>
-        <v>1E-3</v>
+        <v>8.6708866033160582E-4</v>
       </c>
       <c r="X7">
-        <f>'OECD LEONTFD'!Y14</f>
-        <v>1E-3</v>
+        <v>7.7596339620031969E-4</v>
       </c>
       <c r="Y7">
-        <f>'OECD LEONTFD'!Z14</f>
-        <v>1E-3</v>
+        <v>2.404895010551752E-4</v>
       </c>
       <c r="Z7">
-        <f>'OECD LEONTFD'!AA14</f>
-        <v>1E-3</v>
+        <v>9.3181512185053228E-4</v>
       </c>
       <c r="AA7">
-        <f>'OECD LEONTFD'!AB14</f>
-        <v>0</v>
+        <v>9.9185251470280952E-5</v>
       </c>
       <c r="AB7">
-        <f>'OECD LEONTFD'!AC14</f>
-        <v>0</v>
+        <v>1.2726576980983399E-3</v>
       </c>
       <c r="AC7">
-        <f>'OECD LEONTFD'!AD14</f>
-        <v>0</v>
+        <v>6.2919951020099719E-5</v>
       </c>
       <c r="AD7">
-        <f>'OECD LEONTFD'!AE14</f>
-        <v>0</v>
+        <v>3.7949607346720752E-5</v>
       </c>
       <c r="AE7">
-        <f>'OECD LEONTFD'!AF14</f>
-        <v>0</v>
+        <v>9.4587078350763155E-5</v>
       </c>
       <c r="AF7">
-        <f>'OECD LEONTFD'!AG14</f>
-        <v>1E-3</v>
+        <v>1.099192212264149E-4</v>
       </c>
       <c r="AG7">
         <f>'OECD LEONTFD'!AH14</f>
@@ -6956,133 +6577,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="B8">
-        <f>'OECD LEONTFD'!C15</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.0408692738851041E-3</v>
       </c>
       <c r="C8">
-        <f>'OECD LEONTFD'!D15</f>
-        <v>1E-3</v>
+        <v>3.8720440358222253E-5</v>
       </c>
       <c r="D8">
-        <f>'OECD LEONTFD'!E15</f>
-        <v>2E-3</v>
+        <v>1.07647004732237E-2</v>
       </c>
       <c r="E8">
-        <f>'OECD LEONTFD'!F15</f>
-        <v>1E-3</v>
+        <v>8.2055819452400355E-3</v>
       </c>
       <c r="F8">
-        <f>'OECD LEONTFD'!G15</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.542629304661235E-3</v>
       </c>
       <c r="G8">
-        <f>'OECD LEONTFD'!H15</f>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H8" s="5">
-        <f>'OECD LEONTFD'!I15</f>
-        <v>1.208</v>
+        <v>2.5100526012129202E-4</v>
+      </c>
+      <c r="H8">
+        <v>1.2325533433937379</v>
       </c>
       <c r="I8">
-        <f>'OECD LEONTFD'!J15</f>
-        <v>2.3E-2</v>
+        <v>1.3065909607757281E-2</v>
       </c>
       <c r="J8">
-        <f>'OECD LEONTFD'!K15</f>
-        <v>0</v>
+        <v>8.9200253287083299E-4</v>
       </c>
       <c r="K8">
-        <f>'OECD LEONTFD'!L15</f>
-        <v>3.0000000000000001E-3</v>
+        <v>7.3445278762067758E-4</v>
       </c>
       <c r="L8">
-        <f>'OECD LEONTFD'!M15</f>
-        <v>8.0000000000000002E-3</v>
+        <v>9.6892589479199744E-3</v>
       </c>
       <c r="M8">
-        <f>'OECD LEONTFD'!N15</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.7873200601258786E-3</v>
       </c>
       <c r="N8">
-        <f>'OECD LEONTFD'!O15</f>
-        <v>2E-3</v>
+        <v>4.9727711180593921E-3</v>
       </c>
       <c r="O8">
-        <f>'OECD LEONTFD'!P15</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.7430679220296131E-3</v>
       </c>
       <c r="P8">
-        <f>'OECD LEONTFD'!Q15</f>
-        <v>1E-3</v>
+        <v>8.8137273961612611E-4</v>
       </c>
       <c r="Q8">
-        <f>'OECD LEONTFD'!R15</f>
-        <v>3.0000000000000001E-3</v>
+        <v>3.6136403167775582E-3</v>
       </c>
       <c r="R8">
-        <f>'OECD LEONTFD'!S15</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.6572647235473118E-3</v>
       </c>
       <c r="S8">
-        <f>'OECD LEONTFD'!T15</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.6133488201875969E-2</v>
       </c>
       <c r="T8">
-        <f>'OECD LEONTFD'!U15</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.2388470042736842E-4</v>
       </c>
       <c r="U8">
-        <f>'OECD LEONTFD'!V15</f>
-        <v>7.0999999999999994E-2</v>
+        <v>3.5455314451183689E-2</v>
       </c>
       <c r="V8">
-        <f>'OECD LEONTFD'!W15</f>
-        <v>2E-3</v>
+        <v>1.034254704385844E-3</v>
       </c>
       <c r="W8">
-        <f>'OECD LEONTFD'!X15</f>
-        <v>0.02</v>
+        <v>3.1493420543412129E-2</v>
       </c>
       <c r="X8">
-        <f>'OECD LEONTFD'!Y15</f>
-        <v>2E-3</v>
+        <v>1.3521800348547299E-3</v>
       </c>
       <c r="Y8">
-        <f>'OECD LEONTFD'!Z15</f>
-        <v>2E-3</v>
+        <v>3.460730856442047E-3</v>
       </c>
       <c r="Z8">
-        <f>'OECD LEONTFD'!AA15</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.1957903196995429E-3</v>
       </c>
       <c r="AA8">
-        <f>'OECD LEONTFD'!AB15</f>
-        <v>1E-3</v>
+        <v>2.3882456231854999E-4</v>
       </c>
       <c r="AB8">
-        <f>'OECD LEONTFD'!AC15</f>
-        <v>1E-3</v>
+        <v>1.9796076502151309E-3</v>
       </c>
       <c r="AC8">
-        <f>'OECD LEONTFD'!AD15</f>
-        <v>1E-3</v>
+        <v>2.5375852724531509E-3</v>
       </c>
       <c r="AD8">
-        <f>'OECD LEONTFD'!AE15</f>
-        <v>0</v>
+        <v>2.8270187690445411E-4</v>
       </c>
       <c r="AE8">
-        <f>'OECD LEONTFD'!AF15</f>
-        <v>2E-3</v>
+        <v>2.4811725576765931E-3</v>
       </c>
       <c r="AF8">
-        <f>'OECD LEONTFD'!AG15</f>
-        <v>2E-3</v>
+        <v>2.0198996876504569E-4</v>
       </c>
       <c r="AG8">
         <f>'OECD LEONTFD'!AH15</f>
@@ -7105,133 +6695,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B9">
-        <f>'OECD LEONTFD'!C16</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.5630488941957058E-3</v>
       </c>
       <c r="C9">
-        <f>'OECD LEONTFD'!D16</f>
-        <v>1E-3</v>
+        <v>8.8933084863617351E-5</v>
       </c>
       <c r="D9">
-        <f>'OECD LEONTFD'!E16</f>
-        <v>2E-3</v>
+        <v>1.2020408435498391E-2</v>
       </c>
       <c r="E9">
-        <f>'OECD LEONTFD'!F16</f>
-        <v>2E-3</v>
+        <v>5.503820985817239E-3</v>
       </c>
       <c r="F9">
-        <f>'OECD LEONTFD'!G16</f>
-        <v>2.1000000000000001E-2</v>
+        <v>2.7971738636018009E-2</v>
       </c>
       <c r="G9">
-        <f>'OECD LEONTFD'!H16</f>
-        <v>0.03</v>
+        <v>1.344822784770835E-3</v>
       </c>
       <c r="H9">
-        <f>'OECD LEONTFD'!I16</f>
-        <v>1.2999999999999999E-2</v>
+        <v>6.4348225354647574E-3</v>
       </c>
       <c r="I9">
-        <f>'OECD LEONTFD'!J16</f>
-        <v>1.179</v>
+        <v>1.0661750410889781</v>
       </c>
       <c r="J9">
-        <f>'OECD LEONTFD'!K16</f>
-        <v>1E-3</v>
+        <v>1.544136757760338E-3</v>
       </c>
       <c r="K9">
-        <f>'OECD LEONTFD'!L16</f>
-        <v>1.2999999999999999E-2</v>
+        <v>7.5806832925487747E-3</v>
       </c>
       <c r="L9">
-        <f>'OECD LEONTFD'!M16</f>
-        <v>3.2000000000000001E-2</v>
+        <v>1.9371269144619681E-2</v>
       </c>
       <c r="M9">
-        <f>'OECD LEONTFD'!N16</f>
-        <v>1.6E-2</v>
+        <v>1.3981795733610769E-2</v>
       </c>
       <c r="N9">
-        <f>'OECD LEONTFD'!O16</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.058281614931657E-2</v>
       </c>
       <c r="O9">
-        <f>'OECD LEONTFD'!P16</f>
-        <v>1.2999999999999999E-2</v>
+        <v>7.0115660904014002E-3</v>
       </c>
       <c r="P9">
-        <f>'OECD LEONTFD'!Q16</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.8144176210964381E-4</v>
       </c>
       <c r="Q9">
-        <f>'OECD LEONTFD'!R16</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.2524596004505766E-3</v>
       </c>
       <c r="R9">
-        <f>'OECD LEONTFD'!S16</f>
-        <v>0.01</v>
+        <v>6.8153891033670413E-3</v>
       </c>
       <c r="S9">
-        <f>'OECD LEONTFD'!T16</f>
-        <v>1.4E-2</v>
+        <v>1.2163107520273671E-2</v>
       </c>
       <c r="T9">
-        <f>'OECD LEONTFD'!U16</f>
-        <v>8.9999999999999993E-3</v>
+        <v>6.2926673287716332E-4</v>
       </c>
       <c r="U9">
-        <f>'OECD LEONTFD'!V16</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.050021225264534E-2</v>
       </c>
       <c r="V9">
-        <f>'OECD LEONTFD'!W16</f>
-        <v>6.0000000000000001E-3</v>
+        <v>9.7552799634936338E-4</v>
       </c>
       <c r="W9">
-        <f>'OECD LEONTFD'!X16</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.895078045941339E-3</v>
       </c>
       <c r="X9">
-        <f>'OECD LEONTFD'!Y16</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.5692489226559331E-3</v>
       </c>
       <c r="Y9">
-        <f>'OECD LEONTFD'!Z16</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.6799406281415124E-3</v>
       </c>
       <c r="Z9">
-        <f>'OECD LEONTFD'!AA16</f>
-        <v>1.2999999999999999E-2</v>
+        <v>7.2515982172261309E-3</v>
       </c>
       <c r="AA9">
-        <f>'OECD LEONTFD'!AB16</f>
-        <v>1.7999999999999999E-2</v>
+        <v>4.3539984349120738E-3</v>
       </c>
       <c r="AB9">
-        <f>'OECD LEONTFD'!AC16</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.9911115035715719E-3</v>
       </c>
       <c r="AC9">
-        <f>'OECD LEONTFD'!AD16</f>
-        <v>8.0000000000000002E-3</v>
+        <v>5.604585958216975E-3</v>
       </c>
       <c r="AD9">
-        <f>'OECD LEONTFD'!AE16</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.1755109991221859E-3</v>
       </c>
       <c r="AE9">
-        <f>'OECD LEONTFD'!AF16</f>
-        <v>2E-3</v>
+        <v>7.0771083956341733E-4</v>
       </c>
       <c r="AF9">
-        <f>'OECD LEONTFD'!AG16</f>
-        <v>8.9999999999999993E-3</v>
+        <v>9.6658177818172988E-4</v>
       </c>
       <c r="AG9">
         <f>'OECD LEONTFD'!AH16</f>
@@ -7254,133 +6813,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="B10">
-        <f>'OECD LEONTFD'!C17</f>
-        <v>0.03</v>
+        <v>1.41973500653022E-3</v>
       </c>
       <c r="C10">
-        <f>'OECD LEONTFD'!D17</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.9279466234988759E-4</v>
       </c>
       <c r="D10">
-        <f>'OECD LEONTFD'!E17</f>
-        <v>1.2999999999999999E-2</v>
+        <v>2.1778921899528601E-2</v>
       </c>
       <c r="E10">
-        <f>'OECD LEONTFD'!F17</f>
-        <v>7.0000000000000001E-3</v>
+        <v>9.4934715149921894E-3</v>
       </c>
       <c r="F10">
-        <f>'OECD LEONTFD'!G17</f>
-        <v>1.7999999999999999E-2</v>
+        <v>6.3125958708643893E-4</v>
       </c>
       <c r="G10">
-        <f>'OECD LEONTFD'!H17</f>
-        <v>1.2E-2</v>
+        <v>8.174055859531032E-5</v>
       </c>
       <c r="H10">
-        <f>'OECD LEONTFD'!I17</f>
-        <v>1.7000000000000001E-2</v>
+        <v>1.293643060717397E-3</v>
       </c>
       <c r="I10">
-        <f>'OECD LEONTFD'!J17</f>
-        <v>0.02</v>
+        <v>6.0912098714494271E-4</v>
       </c>
       <c r="J10">
-        <f>'OECD LEONTFD'!K17</f>
-        <v>1.0149999999999999</v>
+        <v>1.006449399854098</v>
       </c>
       <c r="K10">
-        <f>'OECD LEONTFD'!L17</f>
-        <v>3.7999999999999999E-2</v>
+        <v>1.1621003859742789E-3</v>
       </c>
       <c r="L10">
-        <f>'OECD LEONTFD'!M17</f>
-        <v>1.6E-2</v>
+        <v>8.138360424843823E-4</v>
       </c>
       <c r="M10">
-        <f>'OECD LEONTFD'!N17</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.9739757766910719E-3</v>
       </c>
       <c r="N10">
-        <f>'OECD LEONTFD'!O17</f>
-        <v>3.6999999999999998E-2</v>
+        <v>3.474848249692207E-3</v>
       </c>
       <c r="O10">
-        <f>'OECD LEONTFD'!P17</f>
-        <v>1.2E-2</v>
+        <v>5.8844024284167046E-4</v>
       </c>
       <c r="P10">
-        <f>'OECD LEONTFD'!Q17</f>
-        <v>2E-3</v>
+        <v>5.3755234839392889E-5</v>
       </c>
       <c r="Q10">
-        <f>'OECD LEONTFD'!R17</f>
-        <v>1.2E-2</v>
+        <v>8.4379954336592441E-4</v>
       </c>
       <c r="R10">
-        <f>'OECD LEONTFD'!S17</f>
-        <v>0.01</v>
+        <v>6.4065230542108189E-4</v>
       </c>
       <c r="S10">
-        <f>'OECD LEONTFD'!T17</f>
-        <v>8.9999999999999993E-3</v>
+        <v>6.3261275849878641E-4</v>
       </c>
       <c r="T10">
-        <f>'OECD LEONTFD'!U17</f>
-        <v>1.2999999999999999E-2</v>
+        <v>4.2121746396232268E-5</v>
       </c>
       <c r="U10">
-        <f>'OECD LEONTFD'!V17</f>
-        <v>1.2E-2</v>
+        <v>4.8954315699964587E-4</v>
       </c>
       <c r="V10">
-        <f>'OECD LEONTFD'!W17</f>
-        <v>0.02</v>
+        <v>7.6075534631557494E-3</v>
       </c>
       <c r="W10">
-        <f>'OECD LEONTFD'!X17</f>
-        <v>2.3E-2</v>
+        <v>2.5797465036497538E-3</v>
       </c>
       <c r="X10">
-        <f>'OECD LEONTFD'!Y17</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.1596220921342722E-4</v>
       </c>
       <c r="Y10">
-        <f>'OECD LEONTFD'!Z17</f>
-        <v>8.1000000000000003E-2</v>
+        <v>5.7799584030900344E-3</v>
       </c>
       <c r="Z10">
-        <f>'OECD LEONTFD'!AA17</f>
-        <v>7.0000000000000001E-3</v>
+        <v>6.1259569017407182E-4</v>
       </c>
       <c r="AA10">
-        <f>'OECD LEONTFD'!AB17</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.30434008354639E-5</v>
       </c>
       <c r="AB10">
-        <f>'OECD LEONTFD'!AC17</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.0434419670180349E-4</v>
       </c>
       <c r="AC10">
-        <f>'OECD LEONTFD'!AD17</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.4681508728802399E-4</v>
       </c>
       <c r="AD10">
-        <f>'OECD LEONTFD'!AE17</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.9219398753784672E-4</v>
       </c>
       <c r="AE10">
-        <f>'OECD LEONTFD'!AF17</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0276853413550012E-4</v>
       </c>
       <c r="AF10">
-        <f>'OECD LEONTFD'!AG17</f>
-        <v>7.0000000000000001E-3</v>
+        <v>9.1357820986286346E-5</v>
       </c>
       <c r="AG10">
         <f>'OECD LEONTFD'!AH17</f>
@@ -7403,133 +6931,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B11">
-        <f>'OECD LEONTFD'!C18</f>
-        <v>4.3999999999999997E-2</v>
+        <v>1.088594384378073E-2</v>
       </c>
       <c r="C11">
-        <f>'OECD LEONTFD'!D18</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.477504549037832E-4</v>
       </c>
       <c r="D11">
-        <f>'OECD LEONTFD'!E18</f>
-        <v>8.0000000000000002E-3</v>
+        <v>4.1296532914101347E-2</v>
       </c>
       <c r="E11">
-        <f>'OECD LEONTFD'!F18</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.893734686674408E-2</v>
       </c>
       <c r="F11">
-        <f>'OECD LEONTFD'!G18</f>
-        <v>2.4E-2</v>
+        <v>5.4613473788925641E-3</v>
       </c>
       <c r="G11">
-        <f>'OECD LEONTFD'!H18</f>
-        <v>7.1999999999999995E-2</v>
+        <v>5.9297109337322681E-3</v>
       </c>
       <c r="H11">
-        <f>'OECD LEONTFD'!I18</f>
-        <v>4.1000000000000002E-2</v>
+        <v>7.9905620161526206E-3</v>
       </c>
       <c r="I11">
-        <f>'OECD LEONTFD'!J18</f>
-        <v>4.9000000000000002E-2</v>
+        <v>9.1378628223152403E-3</v>
       </c>
       <c r="J11">
-        <f>'OECD LEONTFD'!K18</f>
-        <v>1.6E-2</v>
+        <v>1.035777335362884E-2</v>
       </c>
       <c r="K11">
-        <f>'OECD LEONTFD'!L18</f>
-        <v>1.1299999999999999</v>
+        <v>1.0497780839753961</v>
       </c>
       <c r="L11">
-        <f>'OECD LEONTFD'!M18</f>
-        <v>0.16200000000000001</v>
+        <v>6.7868114380677677E-2</v>
       </c>
       <c r="M11">
-        <f>'OECD LEONTFD'!N18</f>
-        <v>3.3000000000000002E-2</v>
+        <v>1.5842623287227551E-2</v>
       </c>
       <c r="N11">
-        <f>'OECD LEONTFD'!O18</f>
-        <v>3.6999999999999998E-2</v>
+        <v>8.2733423899484324E-3</v>
       </c>
       <c r="O11">
-        <f>'OECD LEONTFD'!P18</f>
-        <v>0.03</v>
+        <v>6.8960874785032114E-3</v>
       </c>
       <c r="P11">
-        <f>'OECD LEONTFD'!Q18</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.5965874571968036E-4</v>
       </c>
       <c r="Q11">
-        <f>'OECD LEONTFD'!R18</f>
-        <v>2.8000000000000001E-2</v>
+        <v>7.1321998946606941E-3</v>
       </c>
       <c r="R11">
-        <f>'OECD LEONTFD'!S18</f>
-        <v>2.3E-2</v>
+        <v>6.3300196718115292E-3</v>
       </c>
       <c r="S11">
-        <f>'OECD LEONTFD'!T18</f>
-        <v>3.2000000000000001E-2</v>
+        <v>1.7531108715816101E-2</v>
       </c>
       <c r="T11">
-        <f>'OECD LEONTFD'!U18</f>
-        <v>2.3E-2</v>
+        <v>6.5287276758614436E-4</v>
       </c>
       <c r="U11">
-        <f>'OECD LEONTFD'!V18</f>
-        <v>3.1E-2</v>
+        <v>1.0672558181197771E-2</v>
       </c>
       <c r="V11">
-        <f>'OECD LEONTFD'!W18</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.267243703903344E-3</v>
       </c>
       <c r="W11">
-        <f>'OECD LEONTFD'!X18</f>
-        <v>1.7000000000000001E-2</v>
+        <v>4.7473758198892701E-3</v>
       </c>
       <c r="X11">
-        <f>'OECD LEONTFD'!Y18</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.8191245490216814E-4</v>
       </c>
       <c r="Y11">
-        <f>'OECD LEONTFD'!Z18</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.1259816608411139E-3</v>
       </c>
       <c r="Z11">
-        <f>'OECD LEONTFD'!AA18</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.404251682459287E-3</v>
       </c>
       <c r="AA11">
-        <f>'OECD LEONTFD'!AB18</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.5564715275706141E-4</v>
       </c>
       <c r="AB11">
-        <f>'OECD LEONTFD'!AC18</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.1133928270806849E-3</v>
       </c>
       <c r="AC11">
-        <f>'OECD LEONTFD'!AD18</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0883472705488288E-4</v>
       </c>
       <c r="AD11">
-        <f>'OECD LEONTFD'!AE18</f>
-        <v>2E-3</v>
+        <v>2.0364344473713071E-4</v>
       </c>
       <c r="AE11">
-        <f>'OECD LEONTFD'!AF18</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.050928866521936E-3</v>
       </c>
       <c r="AF11">
-        <f>'OECD LEONTFD'!AG18</f>
-        <v>7.0000000000000001E-3</v>
+        <v>4.2330159204977922E-4</v>
       </c>
       <c r="AG11">
         <f>'OECD LEONTFD'!AH18</f>
@@ -7552,133 +7049,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="B12">
-        <f>'OECD LEONTFD'!C19</f>
-        <v>8.0000000000000002E-3</v>
+        <v>7.2419467240246466E-3</v>
       </c>
       <c r="C12">
-        <f>'OECD LEONTFD'!D19</f>
-        <v>2E-3</v>
+        <v>2.4415851879026608E-4</v>
       </c>
       <c r="D12">
-        <f>'OECD LEONTFD'!E19</f>
-        <v>4.0000000000000001E-3</v>
+        <v>0.1039251964097818</v>
       </c>
       <c r="E12">
-        <f>'OECD LEONTFD'!F19</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.608524942627139E-2</v>
       </c>
       <c r="F12">
-        <f>'OECD LEONTFD'!G19</f>
-        <v>1.7000000000000001E-2</v>
+        <v>3.3426632927533728E-2</v>
       </c>
       <c r="G12">
-        <f>'OECD LEONTFD'!H19</f>
-        <v>1.4E-2</v>
+        <v>2.200537737598986E-3</v>
       </c>
       <c r="H12">
-        <f>'OECD LEONTFD'!I19</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.513628323654469E-2</v>
       </c>
       <c r="I12">
-        <f>'OECD LEONTFD'!J19</f>
-        <v>1.7000000000000001E-2</v>
+        <v>1.1322395424705039E-2</v>
       </c>
       <c r="J12">
-        <f>'OECD LEONTFD'!K19</f>
-        <v>2E-3</v>
+        <v>5.1642642849995023E-3</v>
       </c>
       <c r="K12">
-        <f>'OECD LEONTFD'!L19</f>
-        <v>1.2E-2</v>
+        <v>2.2077925605493699E-2</v>
       </c>
       <c r="L12">
-        <f>'OECD LEONTFD'!M19</f>
-        <v>1.0660000000000001</v>
+        <v>1.1167343627298609</v>
       </c>
       <c r="M12">
-        <f>'OECD LEONTFD'!N19</f>
-        <v>1.0999999999999999E-2</v>
+        <v>3.1475772358114738E-2</v>
       </c>
       <c r="N12">
-        <f>'OECD LEONTFD'!O19</f>
-        <v>1.2999999999999999E-2</v>
+        <v>2.0444232849107589E-2</v>
       </c>
       <c r="O12">
-        <f>'OECD LEONTFD'!P19</f>
-        <v>1.4E-2</v>
+        <v>1.401680641931952E-2</v>
       </c>
       <c r="P12">
-        <f>'OECD LEONTFD'!Q19</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.5932649097462441E-3</v>
       </c>
       <c r="Q12">
-        <f>'OECD LEONTFD'!R19</f>
-        <v>1.2999999999999999E-2</v>
+        <v>2.4814045554911131E-2</v>
       </c>
       <c r="R12">
-        <f>'OECD LEONTFD'!S19</f>
-        <v>2.1999999999999999E-2</v>
+        <v>3.7259648183442323E-2</v>
       </c>
       <c r="S12">
-        <f>'OECD LEONTFD'!T19</f>
-        <v>4.3999999999999997E-2</v>
+        <v>0.14208134586545609</v>
       </c>
       <c r="T12">
-        <f>'OECD LEONTFD'!U19</f>
-        <v>2.4E-2</v>
+        <v>4.365977608812549E-3</v>
       </c>
       <c r="U12">
-        <f>'OECD LEONTFD'!V19</f>
-        <v>2.4E-2</v>
+        <v>5.7796819443685428E-2</v>
       </c>
       <c r="V12">
-        <f>'OECD LEONTFD'!W19</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.6493029868833347E-3</v>
       </c>
       <c r="W12">
-        <f>'OECD LEONTFD'!X19</f>
-        <v>1.7999999999999999E-2</v>
+        <v>2.9771531388505919E-2</v>
       </c>
       <c r="X12">
-        <f>'OECD LEONTFD'!Y19</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.0908239586156421E-3</v>
       </c>
       <c r="Y12">
-        <f>'OECD LEONTFD'!Z19</f>
-        <v>8.0000000000000002E-3</v>
+        <v>6.2890495475037651E-3</v>
       </c>
       <c r="Z12">
-        <f>'OECD LEONTFD'!AA19</f>
-        <v>0.01</v>
+        <v>1.124942180838793E-2</v>
       </c>
       <c r="AA12">
-        <f>'OECD LEONTFD'!AB19</f>
-        <v>2E-3</v>
+        <v>7.1835896633956598E-4</v>
       </c>
       <c r="AB12">
-        <f>'OECD LEONTFD'!AC19</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.031144920873865E-2</v>
       </c>
       <c r="AC12">
-        <f>'OECD LEONTFD'!AD19</f>
-        <v>2E-3</v>
+        <v>1.390486845105194E-3</v>
       </c>
       <c r="AD12">
-        <f>'OECD LEONTFD'!AE19</f>
-        <v>1E-3</v>
+        <v>6.5605791438046028E-4</v>
       </c>
       <c r="AE12">
-        <f>'OECD LEONTFD'!AF19</f>
-        <v>2E-3</v>
+        <v>1.5159845297866221E-3</v>
       </c>
       <c r="AF12">
-        <f>'OECD LEONTFD'!AG19</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.2374983482160849E-3</v>
       </c>
       <c r="AG12">
         <f>'OECD LEONTFD'!AH19</f>
@@ -7701,133 +7167,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="B13">
-        <f>'OECD LEONTFD'!C20</f>
-        <v>2E-3</v>
+        <v>1.01084285496521E-3</v>
       </c>
       <c r="C13">
-        <f>'OECD LEONTFD'!D20</f>
-        <v>1E-3</v>
+        <v>4.7696687885073849E-4</v>
       </c>
       <c r="D13">
-        <f>'OECD LEONTFD'!E20</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.015324697190515E-2</v>
       </c>
       <c r="E13">
-        <f>'OECD LEONTFD'!F20</f>
-        <v>2E-3</v>
+        <v>2.7215821968574149E-2</v>
       </c>
       <c r="F13">
-        <f>'OECD LEONTFD'!G20</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.2361959253295482E-3</v>
       </c>
       <c r="G13">
-        <f>'OECD LEONTFD'!H20</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.0794584621343005E-4</v>
       </c>
       <c r="H13">
-        <f>'OECD LEONTFD'!I20</f>
-        <v>1.6E-2</v>
+        <v>8.9208510545488798E-3</v>
       </c>
       <c r="I13">
-        <f>'OECD LEONTFD'!J20</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.1225637264835539E-3</v>
       </c>
       <c r="J13">
-        <f>'OECD LEONTFD'!K20</f>
-        <v>1E-3</v>
+        <v>6.5405882547303982E-3</v>
       </c>
       <c r="K13">
-        <f>'OECD LEONTFD'!L20</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.8631720285123351E-3</v>
       </c>
       <c r="L13">
-        <f>'OECD LEONTFD'!M20</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.5386888839705626E-3</v>
       </c>
       <c r="M13">
-        <f>'OECD LEONTFD'!N20</f>
-        <v>1.109</v>
+        <v>1.1221481886367151</v>
       </c>
       <c r="N13">
-        <f>'OECD LEONTFD'!O20</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.7932826083120239E-2</v>
       </c>
       <c r="O13">
-        <f>'OECD LEONTFD'!P20</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.1814101353829002E-3</v>
       </c>
       <c r="P13">
-        <f>'OECD LEONTFD'!Q20</f>
-        <v>1E-3</v>
+        <v>3.9923451059873321E-4</v>
       </c>
       <c r="Q13">
-        <f>'OECD LEONTFD'!R20</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.5530447047503211E-2</v>
       </c>
       <c r="R13">
-        <f>'OECD LEONTFD'!S20</f>
-        <v>7.0000000000000001E-3</v>
+        <v>8.4235665051409486E-3</v>
       </c>
       <c r="S13">
-        <f>'OECD LEONTFD'!T20</f>
-        <v>1.4E-2</v>
+        <v>2.3903993911189182E-2</v>
       </c>
       <c r="T13">
-        <f>'OECD LEONTFD'!U20</f>
-        <v>6.0000000000000001E-3</v>
+        <v>4.67831010316801E-4</v>
       </c>
       <c r="U13">
-        <f>'OECD LEONTFD'!V20</f>
-        <v>8.0000000000000002E-3</v>
+        <v>4.9213141443754452E-3</v>
       </c>
       <c r="V13">
-        <f>'OECD LEONTFD'!W20</f>
-        <v>2E-3</v>
+        <v>1.584963583008536E-3</v>
       </c>
       <c r="W13">
-        <f>'OECD LEONTFD'!X20</f>
-        <v>3.4000000000000002E-2</v>
+        <v>3.4221832981562547E-2</v>
       </c>
       <c r="X13">
-        <f>'OECD LEONTFD'!Y20</f>
-        <v>1E-3</v>
+        <v>5.0260380284868544E-4</v>
       </c>
       <c r="Y13">
-        <f>'OECD LEONTFD'!Z20</f>
-        <v>2E-3</v>
+        <v>7.0030278743075513E-4</v>
       </c>
       <c r="Z13">
-        <f>'OECD LEONTFD'!AA20</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.585720520309216E-3</v>
       </c>
       <c r="AA13">
-        <f>'OECD LEONTFD'!AB20</f>
-        <v>0</v>
+        <v>5.308703188184636E-5</v>
       </c>
       <c r="AB13">
-        <f>'OECD LEONTFD'!AC20</f>
-        <v>1E-3</v>
+        <v>3.8743227402964911E-3</v>
       </c>
       <c r="AC13">
-        <f>'OECD LEONTFD'!AD20</f>
-        <v>1E-3</v>
+        <v>1.227825660513519E-3</v>
       </c>
       <c r="AD13">
-        <f>'OECD LEONTFD'!AE20</f>
-        <v>0</v>
+        <v>1.9936910530830919E-4</v>
       </c>
       <c r="AE13">
-        <f>'OECD LEONTFD'!AF20</f>
-        <v>1E-3</v>
+        <v>7.893068017634675E-4</v>
       </c>
       <c r="AF13">
-        <f>'OECD LEONTFD'!AG20</f>
-        <v>2E-3</v>
+        <v>3.3546637375686842E-4</v>
       </c>
       <c r="AG13">
         <f>'OECD LEONTFD'!AH20</f>
@@ -7850,133 +7285,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="B14">
-        <f>'OECD LEONTFD'!C21</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.4404790239220378E-4</v>
       </c>
       <c r="C14">
-        <f>'OECD LEONTFD'!D21</f>
-        <v>3.0000000000000001E-3</v>
+        <v>8.2585677706771164E-4</v>
       </c>
       <c r="D14">
-        <f>'OECD LEONTFD'!E21</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.532285849374334E-2</v>
       </c>
       <c r="E14">
-        <f>'OECD LEONTFD'!F21</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.1512887274785151E-2</v>
       </c>
       <c r="F14">
-        <f>'OECD LEONTFD'!G21</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.6019366047984331E-3</v>
       </c>
       <c r="G14">
-        <f>'OECD LEONTFD'!H21</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.8018895072353332E-4</v>
       </c>
       <c r="H14">
-        <f>'OECD LEONTFD'!I21</f>
-        <v>0.01</v>
+        <v>3.7218119303439419E-3</v>
       </c>
       <c r="I14">
-        <f>'OECD LEONTFD'!J21</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.0690805346542981E-3</v>
       </c>
       <c r="J14">
-        <f>'OECD LEONTFD'!K21</f>
-        <v>2E-3</v>
+        <v>5.2780650476685008E-4</v>
       </c>
       <c r="K14">
-        <f>'OECD LEONTFD'!L21</f>
-        <v>5.0000000000000001E-3</v>
+        <v>6.8611986640159132E-4</v>
       </c>
       <c r="L14">
-        <f>'OECD LEONTFD'!M21</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.891252156619673E-3</v>
       </c>
       <c r="M14">
-        <f>'OECD LEONTFD'!N21</f>
-        <v>1.4E-2</v>
+        <v>5.1230719975458227E-3</v>
       </c>
       <c r="N14">
-        <f>'OECD LEONTFD'!O21</f>
-        <v>1.161</v>
+        <v>1.1483061692370531</v>
       </c>
       <c r="O14">
-        <f>'OECD LEONTFD'!P21</f>
-        <v>0.14899999999999999</v>
+        <v>6.3615415991629537E-2</v>
       </c>
       <c r="P14">
-        <f>'OECD LEONTFD'!Q21</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.662873652053521E-3</v>
       </c>
       <c r="Q14">
-        <f>'OECD LEONTFD'!R21</f>
-        <v>8.6999999999999994E-2</v>
+        <v>4.2440931539188202E-2</v>
       </c>
       <c r="R14">
-        <f>'OECD LEONTFD'!S21</f>
-        <v>7.1999999999999995E-2</v>
+        <v>3.3317477017945983E-2</v>
       </c>
       <c r="S14">
-        <f>'OECD LEONTFD'!T21</f>
-        <v>6.0999999999999999E-2</v>
+        <v>5.3603191062034407E-2</v>
       </c>
       <c r="T14">
-        <f>'OECD LEONTFD'!U21</f>
-        <v>5.6000000000000001E-2</v>
+        <v>2.81958795791624E-3</v>
       </c>
       <c r="U14">
-        <f>'OECD LEONTFD'!V21</f>
-        <v>4.7E-2</v>
+        <v>1.17284498685294E-2</v>
       </c>
       <c r="V14">
-        <f>'OECD LEONTFD'!W21</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.3308310520607621E-4</v>
       </c>
       <c r="W14">
-        <f>'OECD LEONTFD'!X21</f>
-        <v>3.2000000000000001E-2</v>
+        <v>4.135009027803763E-3</v>
       </c>
       <c r="X14">
-        <f>'OECD LEONTFD'!Y21</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.8641013643599891E-4</v>
       </c>
       <c r="Y14">
-        <f>'OECD LEONTFD'!Z21</f>
-        <v>3.0000000000000001E-3</v>
+        <v>7.4573530310609402E-4</v>
       </c>
       <c r="Z14">
-        <f>'OECD LEONTFD'!AA21</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.5919758984499131E-4</v>
       </c>
       <c r="AA14">
-        <f>'OECD LEONTFD'!AB21</f>
-        <v>1E-3</v>
+        <v>5.6385920446945073E-5</v>
       </c>
       <c r="AB14">
-        <f>'OECD LEONTFD'!AC21</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.1449195451098721E-3</v>
       </c>
       <c r="AC14">
-        <f>'OECD LEONTFD'!AD21</f>
-        <v>1E-3</v>
+        <v>3.0853840281666551E-4</v>
       </c>
       <c r="AD14">
-        <f>'OECD LEONTFD'!AE21</f>
-        <v>1E-3</v>
+        <v>6.3488202007336923E-5</v>
       </c>
       <c r="AE14">
-        <f>'OECD LEONTFD'!AF21</f>
-        <v>1E-3</v>
+        <v>3.7168992990567099E-4</v>
       </c>
       <c r="AF14">
-        <f>'OECD LEONTFD'!AG21</f>
-        <v>2E-3</v>
+        <v>1.4203451875475679E-4</v>
       </c>
       <c r="AG14">
         <f>'OECD LEONTFD'!AH21</f>
@@ -7999,133 +7403,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="B15">
-        <f>'OECD LEONTFD'!C22</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.0479680818504941E-3</v>
       </c>
       <c r="C15">
-        <f>'OECD LEONTFD'!D22</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.321187224934037E-3</v>
       </c>
       <c r="D15">
-        <f>'OECD LEONTFD'!E22</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.6060782121451522E-2</v>
       </c>
       <c r="E15">
-        <f>'OECD LEONTFD'!F22</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.361302297930497E-2</v>
       </c>
       <c r="F15">
-        <f>'OECD LEONTFD'!G22</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.026989818941966E-2</v>
       </c>
       <c r="G15">
-        <f>'OECD LEONTFD'!H22</f>
-        <v>1.6E-2</v>
+        <v>1.26271020401892E-3</v>
       </c>
       <c r="H15">
-        <f>'OECD LEONTFD'!I22</f>
-        <v>4.1000000000000002E-2</v>
+        <v>1.6687719770051231E-2</v>
       </c>
       <c r="I15">
-        <f>'OECD LEONTFD'!J22</f>
-        <v>3.4000000000000002E-2</v>
+        <v>7.146170271859641E-3</v>
       </c>
       <c r="J15">
-        <f>'OECD LEONTFD'!K22</f>
-        <v>2E-3</v>
+        <v>2.4722690951043251E-3</v>
       </c>
       <c r="K15">
-        <f>'OECD LEONTFD'!L22</f>
-        <v>1.0999999999999999E-2</v>
+        <v>6.1203332145305959E-3</v>
       </c>
       <c r="L15">
-        <f>'OECD LEONTFD'!M22</f>
-        <v>0.04</v>
+        <v>1.9069547742637739E-2</v>
       </c>
       <c r="M15">
-        <f>'OECD LEONTFD'!N22</f>
-        <v>2.9000000000000001E-2</v>
+        <v>1.8935247536389858E-2</v>
       </c>
       <c r="N15">
-        <f>'OECD LEONTFD'!O22</f>
-        <v>5.8999999999999997E-2</v>
+        <v>2.3075948673079879E-2</v>
       </c>
       <c r="O15">
-        <f>'OECD LEONTFD'!P22</f>
-        <v>1.119</v>
+        <v>1.0558710958509281</v>
       </c>
       <c r="P15">
-        <f>'OECD LEONTFD'!Q22</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.3032692669373752E-3</v>
       </c>
       <c r="Q15">
-        <f>'OECD LEONTFD'!R22</f>
-        <v>6.0999999999999999E-2</v>
+        <v>3.6867583048238367E-2</v>
       </c>
       <c r="R15">
-        <f>'OECD LEONTFD'!S22</f>
-        <v>7.8E-2</v>
+        <v>4.6166857329335183E-2</v>
       </c>
       <c r="S15">
-        <f>'OECD LEONTFD'!T22</f>
-        <v>8.4000000000000005E-2</v>
+        <v>7.8283063172720407E-2</v>
       </c>
       <c r="T15">
-        <f>'OECD LEONTFD'!U22</f>
-        <v>5.0999999999999997E-2</v>
+        <v>5.3282645483131537E-3</v>
       </c>
       <c r="U15">
-        <f>'OECD LEONTFD'!V22</f>
-        <v>3.6999999999999998E-2</v>
+        <v>1.6945965703039051E-2</v>
       </c>
       <c r="V15">
-        <f>'OECD LEONTFD'!W22</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.7773741403577319E-3</v>
       </c>
       <c r="W15">
-        <f>'OECD LEONTFD'!X22</f>
-        <v>5.7000000000000002E-2</v>
+        <v>2.6548480673468731E-2</v>
       </c>
       <c r="X15">
-        <f>'OECD LEONTFD'!Y22</f>
-        <v>4.0000000000000001E-3</v>
+        <v>9.486949241223349E-4</v>
       </c>
       <c r="Y15">
-        <f>'OECD LEONTFD'!Z22</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.1437044939818218E-3</v>
       </c>
       <c r="Z15">
-        <f>'OECD LEONTFD'!AA22</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.2101599335193831E-3</v>
       </c>
       <c r="AA15">
-        <f>'OECD LEONTFD'!AB22</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.4358458594929881E-4</v>
       </c>
       <c r="AB15">
-        <f>'OECD LEONTFD'!AC22</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.6611135411846559E-3</v>
       </c>
       <c r="AC15">
-        <f>'OECD LEONTFD'!AD22</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.4295316778801239E-3</v>
       </c>
       <c r="AD15">
-        <f>'OECD LEONTFD'!AE22</f>
-        <v>2E-3</v>
+        <v>3.2346973438070301E-4</v>
       </c>
       <c r="AE15">
-        <f>'OECD LEONTFD'!AF22</f>
-        <v>2E-3</v>
+        <v>1.164146621441558E-3</v>
       </c>
       <c r="AF15">
-        <f>'OECD LEONTFD'!AG22</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.362262549557593E-4</v>
       </c>
       <c r="AG15">
         <f>'OECD LEONTFD'!AH22</f>
@@ -8148,133 +7521,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B16">
-        <f>'OECD LEONTFD'!C23</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.1688786634718118E-4</v>
       </c>
       <c r="C16">
-        <f>'OECD LEONTFD'!D23</f>
-        <v>1E-3</v>
+        <v>5.4498751679623519E-5</v>
       </c>
       <c r="D16">
-        <f>'OECD LEONTFD'!E23</f>
-        <v>3.0000000000000001E-3</v>
+        <v>3.3502743635228649E-3</v>
       </c>
       <c r="E16">
-        <f>'OECD LEONTFD'!F23</f>
-        <v>3.0000000000000001E-3</v>
+        <v>6.6366686637538801E-3</v>
       </c>
       <c r="F16">
-        <f>'OECD LEONTFD'!G23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.4438058992507401E-3</v>
       </c>
       <c r="G16">
-        <f>'OECD LEONTFD'!H23</f>
-        <v>1.2999999999999999E-2</v>
+        <v>7.7964674452874556E-4</v>
       </c>
       <c r="H16">
-        <f>'OECD LEONTFD'!I23</f>
-        <v>1.4999999999999999E-2</v>
+        <v>4.225032430535099E-3</v>
       </c>
       <c r="I16">
-        <f>'OECD LEONTFD'!J23</f>
-        <v>2.3E-2</v>
+        <v>1.9984360528082692E-3</v>
       </c>
       <c r="J16">
-        <f>'OECD LEONTFD'!K23</f>
-        <v>1E-3</v>
+        <v>9.1742679739490363E-4</v>
       </c>
       <c r="K16">
-        <f>'OECD LEONTFD'!L23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.332607230218406E-3</v>
       </c>
       <c r="L16">
-        <f>'OECD LEONTFD'!M23</f>
-        <v>1.7000000000000001E-2</v>
+        <v>4.9569152139725403E-3</v>
       </c>
       <c r="M16">
-        <f>'OECD LEONTFD'!N23</f>
-        <v>1.4E-2</v>
+        <v>5.0832529517496816E-3</v>
       </c>
       <c r="N16">
-        <f>'OECD LEONTFD'!O23</f>
-        <v>0.01</v>
+        <v>6.6713257153292651E-3</v>
       </c>
       <c r="O16">
-        <f>'OECD LEONTFD'!P23</f>
-        <v>2.1000000000000001E-2</v>
+        <v>6.4261050115996896E-3</v>
       </c>
       <c r="P16">
-        <f>'OECD LEONTFD'!Q23</f>
-        <v>1.0569999999999999</v>
+        <v>1.0150089206580939</v>
       </c>
       <c r="Q16">
-        <f>'OECD LEONTFD'!R23</f>
-        <v>3.1E-2</v>
+        <v>1.647560612911917E-2</v>
       </c>
       <c r="R16">
-        <f>'OECD LEONTFD'!S23</f>
-        <v>2.7E-2</v>
+        <v>1.2060024263533109E-2</v>
       </c>
       <c r="S16">
-        <f>'OECD LEONTFD'!T23</f>
-        <v>3.9E-2</v>
+        <v>2.8305657793461138E-2</v>
       </c>
       <c r="T16">
-        <f>'OECD LEONTFD'!U23</f>
-        <v>0.02</v>
+        <v>5.3203644489917276E-3</v>
       </c>
       <c r="U16">
-        <f>'OECD LEONTFD'!V23</f>
-        <v>1.4999999999999999E-2</v>
+        <v>5.6883389476366751E-3</v>
       </c>
       <c r="V16">
-        <f>'OECD LEONTFD'!W23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.2131694848010932E-4</v>
       </c>
       <c r="W16">
-        <f>'OECD LEONTFD'!X23</f>
-        <v>1.0999999999999999E-2</v>
+        <v>2.1984662081751768E-3</v>
       </c>
       <c r="X16">
-        <f>'OECD LEONTFD'!Y23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.1017018992370889E-3</v>
       </c>
       <c r="Y16">
-        <f>'OECD LEONTFD'!Z23</f>
-        <v>5.0000000000000001E-3</v>
+        <v>5.458357375856082E-4</v>
       </c>
       <c r="Z16">
-        <f>'OECD LEONTFD'!AA23</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.6250088574598938E-4</v>
       </c>
       <c r="AA16">
-        <f>'OECD LEONTFD'!AB23</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.1507235792904749E-3</v>
       </c>
       <c r="AB16">
-        <f>'OECD LEONTFD'!AC23</f>
-        <v>4.4999999999999998E-2</v>
+        <v>8.9165631159765588E-3</v>
       </c>
       <c r="AC16">
-        <f>'OECD LEONTFD'!AD23</f>
-        <v>1.9E-2</v>
+        <v>2.2810010008027211E-3</v>
       </c>
       <c r="AD16">
-        <f>'OECD LEONTFD'!AE23</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.8648915407349349E-4</v>
       </c>
       <c r="AE16">
-        <f>'OECD LEONTFD'!AF23</f>
-        <v>2E-3</v>
+        <v>2.3052986985650279E-4</v>
       </c>
       <c r="AF16">
-        <f>'OECD LEONTFD'!AG23</f>
-        <v>8.0000000000000002E-3</v>
+        <v>6.0396431558729395E-4</v>
       </c>
       <c r="AG16">
         <f>'OECD LEONTFD'!AH23</f>
@@ -8297,133 +7639,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="B17">
-        <f>'OECD LEONTFD'!C24</f>
-        <v>2E-3</v>
+        <v>4.9458538956006813E-3</v>
       </c>
       <c r="C17">
-        <f>'OECD LEONTFD'!D24</f>
-        <v>1E-3</v>
+        <v>2.408938123806764E-4</v>
       </c>
       <c r="D17">
-        <f>'OECD LEONTFD'!E24</f>
-        <v>2E-3</v>
+        <v>1.361315926238321E-2</v>
       </c>
       <c r="E17">
-        <f>'OECD LEONTFD'!F24</f>
-        <v>1E-3</v>
+        <v>3.1027170613078289E-2</v>
       </c>
       <c r="F17">
-        <f>'OECD LEONTFD'!G24</f>
-        <v>2E-3</v>
+        <v>2.5279759740012122E-3</v>
       </c>
       <c r="G17">
-        <f>'OECD LEONTFD'!H24</f>
-        <v>2E-3</v>
+        <v>3.201194913585083E-4</v>
       </c>
       <c r="H17">
-        <f>'OECD LEONTFD'!I24</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.3440665047135011E-2</v>
       </c>
       <c r="I17">
-        <f>'OECD LEONTFD'!J24</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.1134209502519851E-3</v>
       </c>
       <c r="J17">
-        <f>'OECD LEONTFD'!K24</f>
-        <v>0</v>
+        <v>1.696859941130367E-3</v>
       </c>
       <c r="K17">
-        <f>'OECD LEONTFD'!L24</f>
-        <v>2E-3</v>
+        <v>1.8907927531556039E-3</v>
       </c>
       <c r="L17">
-        <f>'OECD LEONTFD'!M24</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.022208648403267E-2</v>
       </c>
       <c r="M17">
-        <f>'OECD LEONTFD'!N24</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0643307648456873E-3</v>
       </c>
       <c r="N17">
-        <f>'OECD LEONTFD'!O24</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.220142097544453E-2</v>
       </c>
       <c r="O17">
-        <f>'OECD LEONTFD'!P24</f>
-        <v>0.01</v>
+        <v>1.2053004835462809E-2</v>
       </c>
       <c r="P17">
-        <f>'OECD LEONTFD'!Q24</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.5609847673416491E-3</v>
       </c>
       <c r="Q17">
-        <f>'OECD LEONTFD'!R24</f>
-        <v>1.0289999999999999</v>
+        <v>1.0909928775771489</v>
       </c>
       <c r="R17">
-        <f>'OECD LEONTFD'!S24</f>
-        <v>0.02</v>
+        <v>5.7851746753841603E-2</v>
       </c>
       <c r="S17">
-        <f>'OECD LEONTFD'!T24</f>
-        <v>0.01</v>
+        <v>3.3607108927540021E-2</v>
       </c>
       <c r="T17">
-        <f>'OECD LEONTFD'!U24</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.758845084149772E-3</v>
       </c>
       <c r="U17">
-        <f>'OECD LEONTFD'!V24</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.7778830846969302E-3</v>
       </c>
       <c r="V17">
-        <f>'OECD LEONTFD'!W24</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.353574256540905E-3</v>
       </c>
       <c r="W17">
-        <f>'OECD LEONTFD'!X24</f>
-        <v>1.7000000000000001E-2</v>
+        <v>3.1801041834392793E-2</v>
       </c>
       <c r="X17">
-        <f>'OECD LEONTFD'!Y24</f>
-        <v>1E-3</v>
+        <v>5.8179865651779349E-4</v>
       </c>
       <c r="Y17">
-        <f>'OECD LEONTFD'!Z24</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.629816182719255E-3</v>
       </c>
       <c r="Z17">
-        <f>'OECD LEONTFD'!AA24</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.082258657003992E-3</v>
       </c>
       <c r="AA17">
-        <f>'OECD LEONTFD'!AB24</f>
-        <v>1E-3</v>
+        <v>9.6904500737950012E-5</v>
       </c>
       <c r="AB17">
-        <f>'OECD LEONTFD'!AC24</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.125614746842165E-2</v>
       </c>
       <c r="AC17">
-        <f>'OECD LEONTFD'!AD24</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.0123018291657169E-3</v>
       </c>
       <c r="AD17">
-        <f>'OECD LEONTFD'!AE24</f>
-        <v>1E-3</v>
+        <v>3.5162017948330639E-4</v>
       </c>
       <c r="AE17">
-        <f>'OECD LEONTFD'!AF24</f>
-        <v>1E-3</v>
+        <v>1.2693753805981449E-3</v>
       </c>
       <c r="AF17">
-        <f>'OECD LEONTFD'!AG24</f>
-        <v>2E-3</v>
+        <v>8.3510632503633645E-4</v>
       </c>
       <c r="AG17">
         <f>'OECD LEONTFD'!AH24</f>
@@ -8446,133 +7757,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="B18">
-        <f>'OECD LEONTFD'!C25</f>
-        <v>1.4E-2</v>
+        <v>2.604243752446442E-3</v>
       </c>
       <c r="C18">
-        <f>'OECD LEONTFD'!D25</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.6788795996245591E-3</v>
       </c>
       <c r="D18">
-        <f>'OECD LEONTFD'!E25</f>
-        <v>1.9E-2</v>
+        <v>8.3742673880649765E-2</v>
       </c>
       <c r="E18">
-        <f>'OECD LEONTFD'!F25</f>
-        <v>2.5999999999999999E-2</v>
+        <v>6.3716706491671216E-2</v>
       </c>
       <c r="F18">
-        <f>'OECD LEONTFD'!G25</f>
-        <v>1.0999999999999999E-2</v>
+        <v>2.3551311651753412E-3</v>
       </c>
       <c r="G18">
-        <f>'OECD LEONTFD'!H25</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.2097287571713971E-4</v>
       </c>
       <c r="H18">
-        <f>'OECD LEONTFD'!I25</f>
-        <v>1.6E-2</v>
+        <v>3.1356440199165618E-3</v>
       </c>
       <c r="I18">
-        <f>'OECD LEONTFD'!J25</f>
-        <v>2.4E-2</v>
+        <v>1.781699762150372E-3</v>
       </c>
       <c r="J18">
-        <f>'OECD LEONTFD'!K25</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.619235506351839E-3</v>
       </c>
       <c r="K18">
-        <f>'OECD LEONTFD'!L25</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.8442169899540572E-3</v>
       </c>
       <c r="L18">
-        <f>'OECD LEONTFD'!M25</f>
-        <v>1.9E-2</v>
+        <v>3.501010647633846E-3</v>
       </c>
       <c r="M18">
-        <f>'OECD LEONTFD'!N25</f>
-        <v>0.01</v>
+        <v>8.92327883642644E-3</v>
       </c>
       <c r="N18">
-        <f>'OECD LEONTFD'!O25</f>
-        <v>2.9000000000000001E-2</v>
+        <v>1.1634653841786099E-2</v>
       </c>
       <c r="O18">
-        <f>'OECD LEONTFD'!P25</f>
-        <v>3.1E-2</v>
+        <v>5.1389241702455568E-3</v>
       </c>
       <c r="P18">
-        <f>'OECD LEONTFD'!Q25</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.356266492437436E-4</v>
       </c>
       <c r="Q18">
-        <f>'OECD LEONTFD'!R25</f>
-        <v>2.4E-2</v>
+        <v>6.2736831956699069E-3</v>
       </c>
       <c r="R18">
-        <f>'OECD LEONTFD'!S25</f>
-        <v>1.099</v>
+        <v>1.0363796934852501</v>
       </c>
       <c r="S18">
-        <f>'OECD LEONTFD'!T25</f>
-        <v>6.3E-2</v>
+        <v>3.1449093708931432E-2</v>
       </c>
       <c r="T18">
-        <f>'OECD LEONTFD'!U25</f>
-        <v>5.8000000000000003E-2</v>
+        <v>1.421029768175927E-3</v>
       </c>
       <c r="U18">
-        <f>'OECD LEONTFD'!V25</f>
-        <v>1.6E-2</v>
+        <v>2.1943219936329961E-3</v>
       </c>
       <c r="V18">
-        <f>'OECD LEONTFD'!W25</f>
-        <v>8.0000000000000002E-3</v>
+        <v>4.4821350285017027E-3</v>
       </c>
       <c r="W18">
-        <f>'OECD LEONTFD'!X25</f>
-        <v>3.5999999999999997E-2</v>
+        <v>7.9260694936883879E-3</v>
       </c>
       <c r="X18">
-        <f>'OECD LEONTFD'!Y25</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.0776840205004601E-4</v>
       </c>
       <c r="Y18">
-        <f>'OECD LEONTFD'!Z25</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.7002962743670391E-3</v>
       </c>
       <c r="Z18">
-        <f>'OECD LEONTFD'!AA25</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.8355262749797267E-4</v>
       </c>
       <c r="AA18">
-        <f>'OECD LEONTFD'!AB25</f>
-        <v>2E-3</v>
+        <v>7.7790083825606245E-5</v>
       </c>
       <c r="AB18">
-        <f>'OECD LEONTFD'!AC25</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.236593321266711E-3</v>
       </c>
       <c r="AC18">
-        <f>'OECD LEONTFD'!AD25</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.2262327318270363E-4</v>
       </c>
       <c r="AD18">
-        <f>'OECD LEONTFD'!AE25</f>
-        <v>1E-3</v>
+        <v>1.980241520943885E-4</v>
       </c>
       <c r="AE18">
-        <f>'OECD LEONTFD'!AF25</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.0059101364034428E-4</v>
       </c>
       <c r="AF18">
-        <f>'OECD LEONTFD'!AG25</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.2249522840031251E-4</v>
       </c>
       <c r="AG18">
         <f>'OECD LEONTFD'!AH25</f>
@@ -8595,133 +7875,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="B19">
-        <f>'OECD LEONTFD'!C26</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.143215009754195E-3</v>
       </c>
       <c r="C19">
-        <f>'OECD LEONTFD'!D26</f>
-        <v>1E-3</v>
+        <v>2.387149687759035E-4</v>
       </c>
       <c r="D19">
-        <f>'OECD LEONTFD'!E26</f>
-        <v>1E-3</v>
+        <v>2.8423985719783849E-2</v>
       </c>
       <c r="E19">
-        <f>'OECD LEONTFD'!F26</f>
-        <v>2E-3</v>
+        <v>1.134403796576124E-2</v>
       </c>
       <c r="F19">
-        <f>'OECD LEONTFD'!G26</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.337162321091382E-3</v>
       </c>
       <c r="G19">
-        <f>'OECD LEONTFD'!H26</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.8198633982143919E-4</v>
       </c>
       <c r="H19">
-        <f>'OECD LEONTFD'!I26</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.2293750295271894E-3</v>
       </c>
       <c r="I19">
-        <f>'OECD LEONTFD'!J26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.7776493918447191E-3</v>
       </c>
       <c r="J19">
-        <f>'OECD LEONTFD'!K26</f>
-        <v>1E-3</v>
+        <v>9.4134941984552463E-4</v>
       </c>
       <c r="K19">
-        <f>'OECD LEONTFD'!L26</f>
-        <v>2E-3</v>
+        <v>1.209511046347608E-3</v>
       </c>
       <c r="L19">
-        <f>'OECD LEONTFD'!M26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.151985531674231E-3</v>
       </c>
       <c r="M19">
-        <f>'OECD LEONTFD'!N26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.7938105119125496E-3</v>
       </c>
       <c r="N19">
-        <f>'OECD LEONTFD'!O26</f>
-        <v>5.0000000000000001E-3</v>
+        <v>6.0808902441345687E-3</v>
       </c>
       <c r="O19">
-        <f>'OECD LEONTFD'!P26</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.8411628152676428E-3</v>
       </c>
       <c r="P19">
-        <f>'OECD LEONTFD'!Q26</f>
-        <v>2E-3</v>
+        <v>3.4786844994839228E-4</v>
       </c>
       <c r="Q19">
-        <f>'OECD LEONTFD'!R26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.126581568850431E-3</v>
       </c>
       <c r="R19">
-        <f>'OECD LEONTFD'!S26</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.4380246013784211E-2</v>
       </c>
       <c r="S19">
-        <f>'OECD LEONTFD'!T26</f>
-        <v>1.1100000000000001</v>
+        <v>1.2831399521259099</v>
       </c>
       <c r="T19">
-        <f>'OECD LEONTFD'!U26</f>
-        <v>8.9999999999999993E-3</v>
+        <v>2.0999313472239711E-3</v>
       </c>
       <c r="U19">
-        <f>'OECD LEONTFD'!V26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.6060076650831869E-3</v>
       </c>
       <c r="V19">
-        <f>'OECD LEONTFD'!W26</f>
-        <v>2E-3</v>
+        <v>1.2678034197867399E-3</v>
       </c>
       <c r="W19">
-        <f>'OECD LEONTFD'!X26</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.6229483187844189E-3</v>
       </c>
       <c r="X19">
-        <f>'OECD LEONTFD'!Y26</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.7971273338562609E-3</v>
       </c>
       <c r="Y19">
-        <f>'OECD LEONTFD'!Z26</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.7804798499561829E-3</v>
       </c>
       <c r="Z19">
-        <f>'OECD LEONTFD'!AA26</f>
-        <v>2E-3</v>
+        <v>7.3971806082055258E-4</v>
       </c>
       <c r="AA19">
-        <f>'OECD LEONTFD'!AB26</f>
-        <v>1E-3</v>
+        <v>2.0933747352385159E-4</v>
       </c>
       <c r="AB19">
-        <f>'OECD LEONTFD'!AC26</f>
-        <v>2E-3</v>
+        <v>1.0658520167125961E-3</v>
       </c>
       <c r="AC19">
-        <f>'OECD LEONTFD'!AD26</f>
-        <v>1E-3</v>
+        <v>2.434446960299357E-4</v>
       </c>
       <c r="AD19">
-        <f>'OECD LEONTFD'!AE26</f>
-        <v>0</v>
+        <v>1.3333844132503071E-4</v>
       </c>
       <c r="AE19">
-        <f>'OECD LEONTFD'!AF26</f>
-        <v>0</v>
+        <v>2.1721888661814189E-4</v>
       </c>
       <c r="AF19">
-        <f>'OECD LEONTFD'!AG26</f>
-        <v>1E-3</v>
+        <v>7.4591886758558826E-4</v>
       </c>
       <c r="AG19">
         <f>'OECD LEONTFD'!AH26</f>
@@ -8744,133 +7993,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="B20">
-        <f>'OECD LEONTFD'!C27</f>
-        <v>1E-3</v>
+        <v>1.753418570929789E-5</v>
       </c>
       <c r="C20">
-        <f>'OECD LEONTFD'!D27</f>
-        <v>0</v>
+        <v>7.3041756779792421E-7</v>
       </c>
       <c r="D20">
-        <f>'OECD LEONTFD'!E27</f>
-        <v>1E-3</v>
+        <v>5.0340952047533266E-4</v>
       </c>
       <c r="E20">
-        <f>'OECD LEONTFD'!F27</f>
-        <v>1E-3</v>
+        <v>3.7407571582467869E-5</v>
       </c>
       <c r="F20">
-        <f>'OECD LEONTFD'!G27</f>
-        <v>1E-3</v>
+        <v>1.101812521349602E-5</v>
       </c>
       <c r="G20">
-        <f>'OECD LEONTFD'!H27</f>
-        <v>2E-3</v>
+        <v>4.2391717303633201E-6</v>
       </c>
       <c r="H20">
-        <f>'OECD LEONTFD'!I27</f>
-        <v>2E-3</v>
+        <v>1.7231206176554731E-4</v>
       </c>
       <c r="I20">
-        <f>'OECD LEONTFD'!J27</f>
-        <v>2E-3</v>
+        <v>1.351919169403507E-5</v>
       </c>
       <c r="J20">
-        <f>'OECD LEONTFD'!K27</f>
-        <v>0</v>
+        <v>2.3577013832475341E-5</v>
       </c>
       <c r="K20">
-        <f>'OECD LEONTFD'!L27</f>
-        <v>1E-3</v>
+        <v>9.1327552611595652E-6</v>
       </c>
       <c r="L20">
-        <f>'OECD LEONTFD'!M27</f>
-        <v>2E-3</v>
+        <v>2.8293895118448969E-5</v>
       </c>
       <c r="M20">
-        <f>'OECD LEONTFD'!N27</f>
-        <v>1E-3</v>
+        <v>7.4612124909261777E-5</v>
       </c>
       <c r="N20">
-        <f>'OECD LEONTFD'!O27</f>
-        <v>2E-3</v>
+        <v>5.6456211672371142E-5</v>
       </c>
       <c r="O20">
-        <f>'OECD LEONTFD'!P27</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.4761512094807593E-5</v>
       </c>
       <c r="P20">
-        <f>'OECD LEONTFD'!Q27</f>
-        <v>1E-3</v>
+        <v>3.9556466316285511E-6</v>
       </c>
       <c r="Q20">
-        <f>'OECD LEONTFD'!R27</f>
-        <v>2E-3</v>
+        <v>1.049918682695912E-5</v>
       </c>
       <c r="R20">
-        <f>'OECD LEONTFD'!S27</f>
-        <v>6.0000000000000001E-3</v>
+        <v>9.4696592367329304E-5</v>
       </c>
       <c r="S20">
-        <f>'OECD LEONTFD'!T27</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.36901686887498E-4</v>
       </c>
       <c r="T20">
-        <f>'OECD LEONTFD'!U27</f>
-        <v>1.0649999999999999</v>
+        <v>1.0114176055521671</v>
       </c>
       <c r="U20">
-        <f>'OECD LEONTFD'!V27</f>
-        <v>2E-3</v>
+        <v>1.461882484445752E-5</v>
       </c>
       <c r="V20">
-        <f>'OECD LEONTFD'!W27</f>
-        <v>1E-3</v>
+        <v>5.2601893016186897E-5</v>
       </c>
       <c r="W20">
-        <f>'OECD LEONTFD'!X27</f>
-        <v>2E-3</v>
+        <v>1.584811906181925E-5</v>
       </c>
       <c r="X20">
-        <f>'OECD LEONTFD'!Y27</f>
-        <v>1E-3</v>
+        <v>2.4653608328796431E-5</v>
       </c>
       <c r="Y20">
-        <f>'OECD LEONTFD'!Z27</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.0506515550685301E-3</v>
       </c>
       <c r="Z20">
-        <f>'OECD LEONTFD'!AA27</f>
-        <v>1E-3</v>
+        <v>1.170678240790543E-5</v>
       </c>
       <c r="AA20">
-        <f>'OECD LEONTFD'!AB27</f>
-        <v>0</v>
+        <v>4.4220463075017388E-6</v>
       </c>
       <c r="AB20">
-        <f>'OECD LEONTFD'!AC27</f>
-        <v>1E-3</v>
+        <v>8.8098842041846151E-6</v>
       </c>
       <c r="AC20">
-        <f>'OECD LEONTFD'!AD27</f>
-        <v>1E-3</v>
+        <v>9.1417404429332711E-6</v>
       </c>
       <c r="AD20">
-        <f>'OECD LEONTFD'!AE27</f>
-        <v>0</v>
+        <v>1.2179843763531351E-5</v>
       </c>
       <c r="AE20">
-        <f>'OECD LEONTFD'!AF27</f>
-        <v>0</v>
+        <v>5.3290394803078001E-6</v>
       </c>
       <c r="AF20">
-        <f>'OECD LEONTFD'!AG27</f>
-        <v>1E-3</v>
+        <v>1.4148478413984851E-5</v>
       </c>
       <c r="AG20">
         <f>'OECD LEONTFD'!AH27</f>
@@ -8893,133 +8111,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="B21">
-        <f>'OECD LEONTFD'!C28</f>
-        <v>2E-3</v>
+        <v>2.0780842069608851E-4</v>
       </c>
       <c r="C21">
-        <f>'OECD LEONTFD'!D28</f>
-        <v>0</v>
+        <v>1.8602306875632221E-5</v>
       </c>
       <c r="D21">
-        <f>'OECD LEONTFD'!E28</f>
-        <v>1E-3</v>
+        <v>1.6689396654445379E-3</v>
       </c>
       <c r="E21">
-        <f>'OECD LEONTFD'!F28</f>
-        <v>1E-3</v>
+        <v>1.0493009602096639E-3</v>
       </c>
       <c r="F21">
-        <f>'OECD LEONTFD'!G28</f>
-        <v>2E-3</v>
+        <v>1.151438849069317E-4</v>
       </c>
       <c r="G21">
-        <f>'OECD LEONTFD'!H28</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.9738189539376037E-4</v>
       </c>
       <c r="H21">
-        <f>'OECD LEONTFD'!I28</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.002262562699439E-3</v>
       </c>
       <c r="I21">
-        <f>'OECD LEONTFD'!J28</f>
-        <v>3.0000000000000001E-3</v>
+        <v>8.774114597668499E-5</v>
       </c>
       <c r="J21">
-        <f>'OECD LEONTFD'!K28</f>
-        <v>0</v>
+        <v>1.7188904631569929E-4</v>
       </c>
       <c r="K21">
-        <f>'OECD LEONTFD'!L28</f>
-        <v>2E-3</v>
+        <v>3.1910179982924978E-4</v>
       </c>
       <c r="L21">
-        <f>'OECD LEONTFD'!M28</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.0513092034367909E-3</v>
       </c>
       <c r="M21">
-        <f>'OECD LEONTFD'!N28</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.0537373262612471E-3</v>
       </c>
       <c r="N21">
-        <f>'OECD LEONTFD'!O28</f>
-        <v>7.0000000000000001E-3</v>
+        <v>5.0262147093040684E-4</v>
       </c>
       <c r="O21">
-        <f>'OECD LEONTFD'!P28</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.0720101565920769E-4</v>
       </c>
       <c r="P21">
-        <f>'OECD LEONTFD'!Q28</f>
-        <v>2E-3</v>
+        <v>6.5372110202371382E-5</v>
       </c>
       <c r="Q21">
-        <f>'OECD LEONTFD'!R28</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.9450317566047509E-3</v>
       </c>
       <c r="R21">
-        <f>'OECD LEONTFD'!S28</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.6582645921148398E-3</v>
       </c>
       <c r="S21">
-        <f>'OECD LEONTFD'!T28</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.4034865170290041E-3</v>
       </c>
       <c r="T21">
-        <f>'OECD LEONTFD'!U28</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.563414374936712E-4</v>
       </c>
       <c r="U21">
-        <f>'OECD LEONTFD'!V28</f>
-        <v>1.018</v>
+        <v>1.015881667422728</v>
       </c>
       <c r="V21">
-        <f>'OECD LEONTFD'!W28</f>
-        <v>1E-3</v>
+        <v>1.8636798653571231E-4</v>
       </c>
       <c r="W21">
-        <f>'OECD LEONTFD'!X28</f>
-        <v>4.0000000000000001E-3</v>
+        <v>5.0001259344010221E-3</v>
       </c>
       <c r="X21">
-        <f>'OECD LEONTFD'!Y28</f>
-        <v>2E-3</v>
+        <v>4.6427806070520642E-4</v>
       </c>
       <c r="Y21">
-        <f>'OECD LEONTFD'!Z28</f>
-        <v>1E-3</v>
+        <v>3.3966326838790769E-4</v>
       </c>
       <c r="Z21">
-        <f>'OECD LEONTFD'!AA28</f>
-        <v>2E-3</v>
+        <v>4.826886684626355E-4</v>
       </c>
       <c r="AA21">
-        <f>'OECD LEONTFD'!AB28</f>
-        <v>1E-3</v>
+        <v>2.3913392503039561E-5</v>
       </c>
       <c r="AB21">
-        <f>'OECD LEONTFD'!AC28</f>
-        <v>1E-3</v>
+        <v>3.9880386908748967E-4</v>
       </c>
       <c r="AC21">
-        <f>'OECD LEONTFD'!AD28</f>
-        <v>1E-3</v>
+        <v>3.0172394549026952E-4</v>
       </c>
       <c r="AD21">
-        <f>'OECD LEONTFD'!AE28</f>
-        <v>1E-3</v>
+        <v>1.211749839974635E-4</v>
       </c>
       <c r="AE21">
-        <f>'OECD LEONTFD'!AF28</f>
-        <v>1E-3</v>
+        <v>9.5026817201122242E-4</v>
       </c>
       <c r="AF21">
-        <f>'OECD LEONTFD'!AG28</f>
-        <v>1E-3</v>
+        <v>1.5538353653087389E-4</v>
       </c>
       <c r="AG21">
         <f>'OECD LEONTFD'!AH28</f>
@@ -9042,133 +8229,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B22">
-        <f>'OECD LEONTFD'!C29</f>
-        <v>1.2999999999999999E-2</v>
+        <v>8.4863212684360475E-3</v>
       </c>
       <c r="C22">
-        <f>'OECD LEONTFD'!D29</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.0124135123204519E-3</v>
       </c>
       <c r="D22">
-        <f>'OECD LEONTFD'!E29</f>
-        <v>1.2E-2</v>
+        <v>0.1438655800209353</v>
       </c>
       <c r="E22">
-        <f>'OECD LEONTFD'!F29</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.193437906773631E-2</v>
       </c>
       <c r="F22">
-        <f>'OECD LEONTFD'!G29</f>
-        <v>1.4999999999999999E-2</v>
+        <v>1.103197360024462E-2</v>
       </c>
       <c r="G22">
-        <f>'OECD LEONTFD'!H29</f>
-        <v>2.3E-2</v>
+        <v>2.492105371348914E-3</v>
       </c>
       <c r="H22">
-        <f>'OECD LEONTFD'!I29</f>
-        <v>2.3E-2</v>
+        <v>1.4456023275220321E-2</v>
       </c>
       <c r="I22">
-        <f>'OECD LEONTFD'!J29</f>
-        <v>3.6999999999999998E-2</v>
+        <v>1.060835867374633E-2</v>
       </c>
       <c r="J22">
-        <f>'OECD LEONTFD'!K29</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.3250405201271529E-2</v>
       </c>
       <c r="K22">
-        <f>'OECD LEONTFD'!L29</f>
-        <v>0.02</v>
+        <v>1.356352439765846E-2</v>
       </c>
       <c r="L22">
-        <f>'OECD LEONTFD'!M29</f>
-        <v>2.4E-2</v>
+        <v>2.0728690083532411E-2</v>
       </c>
       <c r="M22">
-        <f>'OECD LEONTFD'!N29</f>
-        <v>3.4000000000000002E-2</v>
+        <v>4.0386663894847331E-2</v>
       </c>
       <c r="N22">
-        <f>'OECD LEONTFD'!O29</f>
-        <v>6.2E-2</v>
+        <v>5.6079350223307838E-2</v>
       </c>
       <c r="O22">
-        <f>'OECD LEONTFD'!P29</f>
-        <v>2.3E-2</v>
+        <v>1.449798359623667E-2</v>
       </c>
       <c r="P22">
-        <f>'OECD LEONTFD'!Q29</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.284462118932974E-3</v>
       </c>
       <c r="Q22">
-        <f>'OECD LEONTFD'!R29</f>
-        <v>1.4E-2</v>
+        <v>9.4239003777308195E-3</v>
       </c>
       <c r="R22">
-        <f>'OECD LEONTFD'!S29</f>
-        <v>1.4E-2</v>
+        <v>8.8607499795271619E-3</v>
       </c>
       <c r="S22">
-        <f>'OECD LEONTFD'!T29</f>
-        <v>1.6E-2</v>
+        <v>1.521292886800848E-2</v>
       </c>
       <c r="T22">
-        <f>'OECD LEONTFD'!U29</f>
-        <v>1.2E-2</v>
+        <v>1.0057726635056561E-3</v>
       </c>
       <c r="U22">
-        <f>'OECD LEONTFD'!V29</f>
-        <v>1.4E-2</v>
+        <v>6.9859748048597984E-3</v>
       </c>
       <c r="V22">
-        <f>'OECD LEONTFD'!W29</f>
-        <v>1.0580000000000001</v>
+        <v>1.083821509483494</v>
       </c>
       <c r="W22">
-        <f>'OECD LEONTFD'!X29</f>
-        <v>8.9999999999999993E-3</v>
+        <v>6.5196681070670403E-3</v>
       </c>
       <c r="X22">
-        <f>'OECD LEONTFD'!Y29</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.258131312134492E-3</v>
       </c>
       <c r="Y22">
-        <f>'OECD LEONTFD'!Z29</f>
-        <v>1.2E-2</v>
+        <v>1.206880224369386E-2</v>
       </c>
       <c r="Z22">
-        <f>'OECD LEONTFD'!AA29</f>
-        <v>1.6E-2</v>
+        <v>2.1005109891507751E-2</v>
       </c>
       <c r="AA22">
-        <f>'OECD LEONTFD'!AB29</f>
-        <v>5.0000000000000001E-3</v>
+        <v>8.829758190117043E-4</v>
       </c>
       <c r="AB22">
-        <f>'OECD LEONTFD'!AC29</f>
-        <v>0.01</v>
+        <v>4.0018424544993412E-3</v>
       </c>
       <c r="AC22">
-        <f>'OECD LEONTFD'!AD29</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.1974802819684368E-3</v>
       </c>
       <c r="AD22">
-        <f>'OECD LEONTFD'!AE29</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.175330617093716E-3</v>
       </c>
       <c r="AE22">
-        <f>'OECD LEONTFD'!AF29</f>
-        <v>1.6E-2</v>
+        <v>1.9523967092414871E-2</v>
       </c>
       <c r="AF22">
-        <f>'OECD LEONTFD'!AG29</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.085463581736534E-3</v>
       </c>
       <c r="AG22">
         <f>'OECD LEONTFD'!AH29</f>
@@ -9191,133 +8347,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="B23">
-        <f>'OECD LEONTFD'!C30</f>
-        <v>1E-3</v>
+        <v>2.3639166956989101E-3</v>
       </c>
       <c r="C23">
-        <f>'OECD LEONTFD'!D30</f>
-        <v>0</v>
+        <v>3.687304659643042E-4</v>
       </c>
       <c r="D23">
-        <f>'OECD LEONTFD'!E30</f>
-        <v>1E-3</v>
+        <v>4.9189970260198397E-2</v>
       </c>
       <c r="E23">
-        <f>'OECD LEONTFD'!F30</f>
-        <v>0</v>
+        <v>2.903540979980436E-2</v>
       </c>
       <c r="F23">
-        <f>'OECD LEONTFD'!G30</f>
-        <v>0</v>
+        <v>1.366258232955772E-3</v>
       </c>
       <c r="G23">
-        <f>'OECD LEONTFD'!H30</f>
-        <v>0</v>
+        <v>2.1678168692347691E-4</v>
       </c>
       <c r="H23">
-        <f>'OECD LEONTFD'!I30</f>
-        <v>0</v>
+        <v>1.533889205506107E-3</v>
       </c>
       <c r="I23">
-        <f>'OECD LEONTFD'!J30</f>
-        <v>0</v>
+        <v>1.2600319093805741E-3</v>
       </c>
       <c r="J23">
-        <f>'OECD LEONTFD'!K30</f>
-        <v>1E-3</v>
+        <v>1.9811007585981269E-2</v>
       </c>
       <c r="K23">
-        <f>'OECD LEONTFD'!L30</f>
-        <v>0</v>
+        <v>1.4503411247443569E-3</v>
       </c>
       <c r="L23">
-        <f>'OECD LEONTFD'!M30</f>
-        <v>0</v>
+        <v>1.9857013358663932E-3</v>
       </c>
       <c r="M23">
-        <f>'OECD LEONTFD'!N30</f>
-        <v>0</v>
+        <v>7.0903803316272034E-3</v>
       </c>
       <c r="N23">
-        <f>'OECD LEONTFD'!O30</f>
-        <v>1E-3</v>
+        <v>7.4932039898589937E-3</v>
       </c>
       <c r="O23">
-        <f>'OECD LEONTFD'!P30</f>
-        <v>0</v>
+        <v>1.8608301820172929E-3</v>
       </c>
       <c r="P23">
-        <f>'OECD LEONTFD'!Q30</f>
-        <v>0</v>
+        <v>2.2124122129299541E-4</v>
       </c>
       <c r="Q23">
-        <f>'OECD LEONTFD'!R30</f>
-        <v>0</v>
+        <v>1.2453681104887531E-3</v>
       </c>
       <c r="R23">
-        <f>'OECD LEONTFD'!S30</f>
-        <v>0</v>
+        <v>1.2960796377407811E-3</v>
       </c>
       <c r="S23">
-        <f>'OECD LEONTFD'!T30</f>
-        <v>0</v>
+        <v>1.962005161116569E-3</v>
       </c>
       <c r="T23">
-        <f>'OECD LEONTFD'!U30</f>
-        <v>0</v>
+        <v>1.6342018587825211E-4</v>
       </c>
       <c r="U23">
-        <f>'OECD LEONTFD'!V30</f>
-        <v>0</v>
+        <v>9.5019398394030066E-4</v>
       </c>
       <c r="V23">
-        <f>'OECD LEONTFD'!W30</f>
-        <v>1E-3</v>
+        <v>1.7969004873685669E-2</v>
       </c>
       <c r="W23">
-        <f>'OECD LEONTFD'!X30</f>
-        <v>1</v>
+        <v>1.0011912718574489</v>
       </c>
       <c r="X23">
-        <f>'OECD LEONTFD'!Y30</f>
-        <v>0</v>
+        <v>1.304981446039206E-3</v>
       </c>
       <c r="Y23">
-        <f>'OECD LEONTFD'!Z30</f>
-        <v>1E-3</v>
+        <v>3.721431860044195E-3</v>
       </c>
       <c r="Z23">
-        <f>'OECD LEONTFD'!AA30</f>
-        <v>1E-3</v>
+        <v>2.3171926446220242E-3</v>
       </c>
       <c r="AA23">
-        <f>'OECD LEONTFD'!AB30</f>
-        <v>0</v>
+        <v>2.1333686113120831E-4</v>
       </c>
       <c r="AB23">
-        <f>'OECD LEONTFD'!AC30</f>
-        <v>1E-3</v>
+        <v>1.9861864514822752E-3</v>
       </c>
       <c r="AC23">
-        <f>'OECD LEONTFD'!AD30</f>
-        <v>0</v>
+        <v>4.5537987311715839E-4</v>
       </c>
       <c r="AD23">
-        <f>'OECD LEONTFD'!AE30</f>
-        <v>0</v>
+        <v>1.644100831574638E-3</v>
       </c>
       <c r="AE23">
-        <f>'OECD LEONTFD'!AF30</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.7213754704920901E-2</v>
       </c>
       <c r="AF23">
-        <f>'OECD LEONTFD'!AG30</f>
-        <v>1E-3</v>
+        <v>2.8991007859906632E-4</v>
       </c>
       <c r="AG23">
         <f>'OECD LEONTFD'!AH30</f>
@@ -9340,133 +8465,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="B24">
-        <f>'OECD LEONTFD'!C31</f>
-        <v>0.155</v>
+        <v>1.5278668371022091E-3</v>
       </c>
       <c r="C24">
-        <f>'OECD LEONTFD'!D31</f>
-        <v>1.4E-2</v>
+        <v>4.5943086397183167E-5</v>
       </c>
       <c r="D24">
-        <f>'OECD LEONTFD'!E31</f>
-        <v>3.2000000000000001E-2</v>
+        <v>5.0382850602021792E-3</v>
       </c>
       <c r="E24">
-        <f>'OECD LEONTFD'!F31</f>
-        <v>0.03</v>
+        <v>1.2876737928986051E-3</v>
       </c>
       <c r="F24">
-        <f>'OECD LEONTFD'!G31</f>
-        <v>0.221</v>
+        <v>2.7973918435736859E-3</v>
       </c>
       <c r="G24">
-        <f>'OECD LEONTFD'!H31</f>
-        <v>0.224</v>
+        <v>5.3403438121066955E-4</v>
       </c>
       <c r="H24">
-        <f>'OECD LEONTFD'!I31</f>
-        <v>0.18</v>
+        <v>2.6153802873101488E-3</v>
       </c>
       <c r="I24">
-        <f>'OECD LEONTFD'!J31</f>
-        <v>0.14599999999999999</v>
+        <v>1.625570113771257E-3</v>
       </c>
       <c r="J24">
-        <f>'OECD LEONTFD'!K31</f>
-        <v>2.1999999999999999E-2</v>
+        <v>5.4809707508256104E-4</v>
       </c>
       <c r="K24">
-        <f>'OECD LEONTFD'!L31</f>
-        <v>0.113</v>
+        <v>3.7327816553082232E-3</v>
       </c>
       <c r="L24">
-        <f>'OECD LEONTFD'!M31</f>
-        <v>0.16800000000000001</v>
+        <v>5.1132401423357393E-3</v>
       </c>
       <c r="M24">
-        <f>'OECD LEONTFD'!N31</f>
-        <v>0.109</v>
+        <v>3.1004333015882779E-3</v>
       </c>
       <c r="N24">
-        <f>'OECD LEONTFD'!O31</f>
-        <v>0.108</v>
+        <v>6.176259275381896E-3</v>
       </c>
       <c r="O24">
-        <f>'OECD LEONTFD'!P31</f>
-        <v>0.109</v>
+        <v>2.7269557912854361E-3</v>
       </c>
       <c r="P24">
-        <f>'OECD LEONTFD'!Q31</f>
-        <v>5.2999999999999999E-2</v>
+        <v>6.4556806641754877E-4</v>
       </c>
       <c r="Q24">
-        <f>'OECD LEONTFD'!R31</f>
-        <v>0.125</v>
+        <v>9.4070861663779343E-3</v>
       </c>
       <c r="R24">
-        <f>'OECD LEONTFD'!S31</f>
-        <v>0.13900000000000001</v>
+        <v>7.0556999859637086E-3</v>
       </c>
       <c r="S24">
-        <f>'OECD LEONTFD'!T31</f>
-        <v>0.16900000000000001</v>
+        <v>2.9236436230543322E-3</v>
       </c>
       <c r="T24">
-        <f>'OECD LEONTFD'!U31</f>
-        <v>0.121</v>
+        <v>1.2249075090229591E-4</v>
       </c>
       <c r="U24">
-        <f>'OECD LEONTFD'!V31</f>
-        <v>0.14399999999999999</v>
+        <v>5.4398114113540456E-3</v>
       </c>
       <c r="V24">
-        <f>'OECD LEONTFD'!W31</f>
-        <v>3.6999999999999998E-2</v>
+        <v>2.696953172499017E-3</v>
       </c>
       <c r="W24">
-        <f>'OECD LEONTFD'!X31</f>
-        <v>9.8000000000000004E-2</v>
+        <v>7.5718014053720035E-4</v>
       </c>
       <c r="X24">
-        <f>'OECD LEONTFD'!Y31</f>
-        <v>1.054</v>
+        <v>1.005448960665037</v>
       </c>
       <c r="Y24">
-        <f>'OECD LEONTFD'!Z31</f>
-        <v>6.3E-2</v>
+        <v>2.6848765678933698E-4</v>
       </c>
       <c r="Z24">
-        <f>'OECD LEONTFD'!AA31</f>
-        <v>0.109</v>
+        <v>4.44318919629514E-4</v>
       </c>
       <c r="AA24">
-        <f>'OECD LEONTFD'!AB31</f>
-        <v>4.8000000000000001E-2</v>
+        <v>4.1071852024193983E-4</v>
       </c>
       <c r="AB24">
-        <f>'OECD LEONTFD'!AC31</f>
-        <v>6.4000000000000001E-2</v>
+        <v>1.1371812678205649E-3</v>
       </c>
       <c r="AC24">
-        <f>'OECD LEONTFD'!AD31</f>
-        <v>3.6999999999999998E-2</v>
+        <v>6.5431047960444973E-5</v>
       </c>
       <c r="AD24">
-        <f>'OECD LEONTFD'!AE31</f>
-        <v>2.1000000000000001E-2</v>
+        <v>8.2009178119411778E-5</v>
       </c>
       <c r="AE24">
-        <f>'OECD LEONTFD'!AF31</f>
-        <v>1.7000000000000001E-2</v>
+        <v>9.1733113409737943E-4</v>
       </c>
       <c r="AF24">
-        <f>'OECD LEONTFD'!AG31</f>
-        <v>4.2000000000000003E-2</v>
+        <v>4.070176479272019E-5</v>
       </c>
       <c r="AG24">
         <f>'OECD LEONTFD'!AH31</f>
@@ -9489,133 +8583,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="B25">
-        <f>'OECD LEONTFD'!C32</f>
-        <v>4.5999999999999999E-2</v>
+        <v>1.9533341067496019E-3</v>
       </c>
       <c r="C25">
-        <f>'OECD LEONTFD'!D32</f>
-        <v>8.9999999999999993E-3</v>
+        <v>2.5311443031608591E-4</v>
       </c>
       <c r="D25">
-        <f>'OECD LEONTFD'!E32</f>
-        <v>1.6E-2</v>
+        <v>6.5343317598492004E-2</v>
       </c>
       <c r="E25">
-        <f>'OECD LEONTFD'!F32</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.072650600880661E-2</v>
       </c>
       <c r="F25">
-        <f>'OECD LEONTFD'!G32</f>
-        <v>6.8000000000000005E-2</v>
+        <v>6.1677890489925729E-3</v>
       </c>
       <c r="G25">
-        <f>'OECD LEONTFD'!H32</f>
-        <v>4.2000000000000003E-2</v>
+        <v>3.7363721763458211E-3</v>
       </c>
       <c r="H25">
-        <f>'OECD LEONTFD'!I32</f>
-        <v>5.8000000000000003E-2</v>
+        <v>3.6617295683774392E-2</v>
       </c>
       <c r="I25">
-        <f>'OECD LEONTFD'!J32</f>
-        <v>4.8000000000000001E-2</v>
+        <v>9.4929177318341402E-3</v>
       </c>
       <c r="J25">
-        <f>'OECD LEONTFD'!K32</f>
-        <v>7.0000000000000007E-2</v>
+        <v>1.5547401544219569E-2</v>
       </c>
       <c r="K25">
-        <f>'OECD LEONTFD'!L32</f>
-        <v>0.04</v>
+        <v>4.3692389952899079E-3</v>
       </c>
       <c r="L25">
-        <f>'OECD LEONTFD'!M32</f>
-        <v>0.04</v>
+        <v>2.365300607949666E-2</v>
       </c>
       <c r="M25">
-        <f>'OECD LEONTFD'!N32</f>
-        <v>7.2999999999999995E-2</v>
+        <v>2.9473424451694569E-2</v>
       </c>
       <c r="N25">
-        <f>'OECD LEONTFD'!O32</f>
-        <v>8.5999999999999993E-2</v>
+        <v>1.236436368490167E-2</v>
       </c>
       <c r="O25">
-        <f>'OECD LEONTFD'!P32</f>
-        <v>4.1000000000000002E-2</v>
+        <v>8.1365238520733092E-3</v>
       </c>
       <c r="P25">
-        <f>'OECD LEONTFD'!Q32</f>
-        <v>1.0999999999999999E-2</v>
+        <v>3.0950608445545259E-3</v>
       </c>
       <c r="Q25">
-        <f>'OECD LEONTFD'!R32</f>
-        <v>3.3000000000000002E-2</v>
+        <v>3.253107313445483E-3</v>
       </c>
       <c r="R25">
-        <f>'OECD LEONTFD'!S32</f>
-        <v>3.4000000000000002E-2</v>
+        <v>5.1195144712831318E-3</v>
       </c>
       <c r="S25">
-        <f>'OECD LEONTFD'!T32</f>
-        <v>0.04</v>
+        <v>7.2356997080326984E-3</v>
       </c>
       <c r="T25">
-        <f>'OECD LEONTFD'!U32</f>
-        <v>3.1E-2</v>
+        <v>5.0051519647793536E-4</v>
       </c>
       <c r="U25">
-        <f>'OECD LEONTFD'!V32</f>
-        <v>3.7999999999999999E-2</v>
+        <v>7.6352423407611324E-3</v>
       </c>
       <c r="V25">
-        <f>'OECD LEONTFD'!W32</f>
-        <v>2.9000000000000001E-2</v>
+        <v>2.512928328805147E-2</v>
       </c>
       <c r="W25">
-        <f>'OECD LEONTFD'!X32</f>
-        <v>3.3000000000000002E-2</v>
+        <v>3.742839121513384E-3</v>
       </c>
       <c r="X25">
-        <f>'OECD LEONTFD'!Y32</f>
-        <v>2.8000000000000001E-2</v>
+        <v>1.561547343379734E-2</v>
       </c>
       <c r="Y25">
-        <f>'OECD LEONTFD'!Z32</f>
-        <v>1.1060000000000001</v>
+        <v>1.075505765290258</v>
       </c>
       <c r="Z25">
-        <f>'OECD LEONTFD'!AA32</f>
-        <v>2.5000000000000001E-2</v>
+        <v>4.1380325138091296E-3</v>
       </c>
       <c r="AA25">
-        <f>'OECD LEONTFD'!AB32</f>
-        <v>0.02</v>
+        <v>3.0515904341636268E-3</v>
       </c>
       <c r="AB25">
-        <f>'OECD LEONTFD'!AC32</f>
-        <v>2.4E-2</v>
+        <v>4.3610995431775223E-3</v>
       </c>
       <c r="AC25">
-        <f>'OECD LEONTFD'!AD32</f>
-        <v>1.2999999999999999E-2</v>
+        <v>6.2749251698390168E-3</v>
       </c>
       <c r="AD25">
-        <f>'OECD LEONTFD'!AE32</f>
-        <v>1.4E-2</v>
+        <v>5.0282885343448259E-3</v>
       </c>
       <c r="AE25">
-        <f>'OECD LEONTFD'!AF32</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.0338631880623308E-3</v>
       </c>
       <c r="AF25">
-        <f>'OECD LEONTFD'!AG32</f>
-        <v>1.7999999999999999E-2</v>
+        <v>1.937463408818896E-3</v>
       </c>
       <c r="AG25">
         <f>'OECD LEONTFD'!AH32</f>
@@ -9638,133 +8701,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="B26">
-        <f>'OECD LEONTFD'!C33</f>
-        <v>3.0000000000000001E-3</v>
+        <v>7.6265231211052075E-4</v>
       </c>
       <c r="C26">
-        <f>'OECD LEONTFD'!D33</f>
-        <v>1E-3</v>
+        <v>7.9704335370899042E-5</v>
       </c>
       <c r="D26">
-        <f>'OECD LEONTFD'!E33</f>
-        <v>2E-3</v>
+        <v>4.987604666251093E-3</v>
       </c>
       <c r="E26">
-        <f>'OECD LEONTFD'!F33</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.5875506124461088E-2</v>
       </c>
       <c r="F26">
-        <f>'OECD LEONTFD'!G33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.342521791484747E-3</v>
       </c>
       <c r="G26">
-        <f>'OECD LEONTFD'!H33</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.416668422377635E-4</v>
       </c>
       <c r="H26">
-        <f>'OECD LEONTFD'!I33</f>
-        <v>1.0999999999999999E-2</v>
+        <v>2.5026883036479998E-3</v>
       </c>
       <c r="I26">
-        <f>'OECD LEONTFD'!J33</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1.1175239466805361E-3</v>
       </c>
       <c r="J26">
-        <f>'OECD LEONTFD'!K33</f>
-        <v>1E-3</v>
+        <v>1.8104159625552581E-3</v>
       </c>
       <c r="K26">
-        <f>'OECD LEONTFD'!L33</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.1150115368078101E-4</v>
       </c>
       <c r="L26">
-        <f>'OECD LEONTFD'!M33</f>
-        <v>8.9999999999999993E-3</v>
+        <v>2.6811466607130569E-3</v>
       </c>
       <c r="M26">
-        <f>'OECD LEONTFD'!N33</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.5601181930076148E-3</v>
       </c>
       <c r="N26">
-        <f>'OECD LEONTFD'!O33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.2020060897965091E-3</v>
       </c>
       <c r="O26">
-        <f>'OECD LEONTFD'!P33</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.2119778835509021E-3</v>
       </c>
       <c r="P26">
-        <f>'OECD LEONTFD'!Q33</f>
-        <v>2E-3</v>
+        <v>2.3483391004078841E-4</v>
       </c>
       <c r="Q26">
-        <f>'OECD LEONTFD'!R33</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.019683883368262E-3</v>
       </c>
       <c r="R26">
-        <f>'OECD LEONTFD'!S33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.825386480923947E-3</v>
       </c>
       <c r="S26">
-        <f>'OECD LEONTFD'!T33</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.840925741701756E-3</v>
       </c>
       <c r="T26">
-        <f>'OECD LEONTFD'!U33</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.1822645716334309E-4</v>
       </c>
       <c r="U26">
-        <f>'OECD LEONTFD'!V33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.9163838413843929E-3</v>
       </c>
       <c r="V26">
-        <f>'OECD LEONTFD'!W33</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.4260022629133179E-3</v>
       </c>
       <c r="W26">
-        <f>'OECD LEONTFD'!X33</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.4154956984701515E-4</v>
       </c>
       <c r="X26">
-        <f>'OECD LEONTFD'!Y33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.689011108470263E-3</v>
       </c>
       <c r="Y26">
-        <f>'OECD LEONTFD'!Z33</f>
-        <v>7.0000000000000001E-3</v>
+        <v>9.4431556243486335E-3</v>
       </c>
       <c r="Z26">
-        <f>'OECD LEONTFD'!AA33</f>
-        <v>1.0089999999999999</v>
+        <v>1.005911595463338</v>
       </c>
       <c r="AA26">
-        <f>'OECD LEONTFD'!AB33</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.0412435168816361E-3</v>
       </c>
       <c r="AB26">
-        <f>'OECD LEONTFD'!AC33</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.0079687194380271E-3</v>
       </c>
       <c r="AC26">
-        <f>'OECD LEONTFD'!AD33</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.3100919951160671E-3</v>
       </c>
       <c r="AD26">
-        <f>'OECD LEONTFD'!AE33</f>
-        <v>8.9999999999999993E-3</v>
+        <v>6.0149444348449434E-3</v>
       </c>
       <c r="AE26">
-        <f>'OECD LEONTFD'!AF33</f>
-        <v>8.0000000000000002E-3</v>
+        <v>4.6126259022347361E-3</v>
       </c>
       <c r="AF26">
-        <f>'OECD LEONTFD'!AG33</f>
-        <v>1.2E-2</v>
+        <v>1.831969564341628E-3</v>
       </c>
       <c r="AG26">
         <f>'OECD LEONTFD'!AH33</f>
@@ -9787,133 +8819,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B27">
-        <f>'OECD LEONTFD'!C34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>4.2849883747940953E-5</v>
       </c>
       <c r="C27">
-        <f>'OECD LEONTFD'!D34</f>
-        <v>1E-3</v>
+        <v>1.138218502301287E-5</v>
       </c>
       <c r="D27">
-        <f>'OECD LEONTFD'!E34</f>
-        <v>2E-3</v>
+        <v>2.9850410024503829E-4</v>
       </c>
       <c r="E27">
-        <f>'OECD LEONTFD'!F34</f>
-        <v>2E-3</v>
+        <v>4.1962428635748461E-4</v>
       </c>
       <c r="F27">
-        <f>'OECD LEONTFD'!G34</f>
-        <v>8.9999999999999993E-3</v>
+        <v>4.2822000424145268E-5</v>
       </c>
       <c r="G27">
-        <f>'OECD LEONTFD'!H34</f>
-        <v>7.0000000000000001E-3</v>
+        <v>8.5872660295857955E-6</v>
       </c>
       <c r="H27">
-        <f>'OECD LEONTFD'!I34</f>
-        <v>6.0000000000000001E-3</v>
+        <v>7.0048827793958059E-5</v>
       </c>
       <c r="I27">
-        <f>'OECD LEONTFD'!J34</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.1432917084549757E-5</v>
       </c>
       <c r="J27">
-        <f>'OECD LEONTFD'!K34</f>
-        <v>2E-3</v>
+        <v>5.6191415986696957E-5</v>
       </c>
       <c r="K27">
-        <f>'OECD LEONTFD'!L34</f>
-        <v>8.0000000000000002E-3</v>
+        <v>5.541732472474403E-5</v>
       </c>
       <c r="L27">
-        <f>'OECD LEONTFD'!M34</f>
-        <v>6.0000000000000001E-3</v>
+        <v>8.1499687101022536E-5</v>
       </c>
       <c r="M27">
-        <f>'OECD LEONTFD'!N34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.0285866191635779E-4</v>
       </c>
       <c r="N27">
-        <f>'OECD LEONTFD'!O34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.101355930479624E-4</v>
       </c>
       <c r="O27">
-        <f>'OECD LEONTFD'!P34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.059266000426605E-4</v>
       </c>
       <c r="P27">
-        <f>'OECD LEONTFD'!Q34</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.2053018064304539E-5</v>
       </c>
       <c r="Q27">
-        <f>'OECD LEONTFD'!R34</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.7132646625348652E-5</v>
       </c>
       <c r="R27">
-        <f>'OECD LEONTFD'!S34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>9.3297502946552459E-5</v>
       </c>
       <c r="S27">
-        <f>'OECD LEONTFD'!T34</f>
-        <v>6.0000000000000001E-3</v>
+        <v>7.8589826702056111E-5</v>
       </c>
       <c r="T27">
-        <f>'OECD LEONTFD'!U34</f>
-        <v>0.01</v>
+        <v>2.5343191975809169E-5</v>
       </c>
       <c r="U27">
-        <f>'OECD LEONTFD'!V34</f>
-        <v>6.0000000000000001E-3</v>
+        <v>9.0696328661097808E-5</v>
       </c>
       <c r="V27">
-        <f>'OECD LEONTFD'!W34</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.5849943203814873E-4</v>
       </c>
       <c r="W27">
-        <f>'OECD LEONTFD'!X34</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.2861824991933921E-4</v>
       </c>
       <c r="X27">
-        <f>'OECD LEONTFD'!Y34</f>
-        <v>1.2E-2</v>
+        <v>2.7692282807578099E-4</v>
       </c>
       <c r="Y27">
-        <f>'OECD LEONTFD'!Z34</f>
-        <v>8.9999999999999993E-3</v>
+        <v>3.6434441126462132E-4</v>
       </c>
       <c r="Z27">
-        <f>'OECD LEONTFD'!AA34</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.2616202186947791E-3</v>
       </c>
       <c r="AA27">
-        <f>'OECD LEONTFD'!AB34</f>
-        <v>1.1619999999999999</v>
+        <v>1.008950553411275</v>
       </c>
       <c r="AB27">
-        <f>'OECD LEONTFD'!AC34</f>
-        <v>5.6000000000000001E-2</v>
+        <v>1.9004176391145381E-2</v>
       </c>
       <c r="AC27">
-        <f>'OECD LEONTFD'!AD34</f>
-        <v>2.5000000000000001E-2</v>
+        <v>6.6238961984724351E-4</v>
       </c>
       <c r="AD27">
-        <f>'OECD LEONTFD'!AE34</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.2423914863825208E-4</v>
       </c>
       <c r="AE27">
-        <f>'OECD LEONTFD'!AF34</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.5248388476142981E-4</v>
       </c>
       <c r="AF27">
-        <f>'OECD LEONTFD'!AG34</f>
-        <v>2.4E-2</v>
+        <v>2.6528814413863741E-4</v>
       </c>
       <c r="AG27">
         <f>'OECD LEONTFD'!AH34</f>
@@ -9936,133 +8937,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="B28">
-        <f>'OECD LEONTFD'!C35</f>
-        <v>0.01</v>
+        <v>5.8368822535796814E-4</v>
       </c>
       <c r="C28">
-        <f>'OECD LEONTFD'!D35</f>
-        <v>2E-3</v>
+        <v>2.427013351241934E-4</v>
       </c>
       <c r="D28">
-        <f>'OECD LEONTFD'!E35</f>
-        <v>4.0000000000000001E-3</v>
+        <v>7.2203119976747259E-3</v>
       </c>
       <c r="E28">
-        <f>'OECD LEONTFD'!F35</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.2558211361951069E-2</v>
       </c>
       <c r="F28">
-        <f>'OECD LEONTFD'!G35</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.4710351106798783E-4</v>
       </c>
       <c r="G28">
-        <f>'OECD LEONTFD'!H35</f>
-        <v>1.4E-2</v>
+        <v>1.736002410333039E-4</v>
       </c>
       <c r="H28">
-        <f>'OECD LEONTFD'!I35</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.48528790317625E-3</v>
       </c>
       <c r="I28">
-        <f>'OECD LEONTFD'!J35</f>
-        <v>1.2E-2</v>
+        <v>7.3112262368666358E-4</v>
       </c>
       <c r="J28">
-        <f>'OECD LEONTFD'!K35</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.2034510995509479E-3</v>
       </c>
       <c r="K28">
-        <f>'OECD LEONTFD'!L35</f>
-        <v>8.0000000000000002E-3</v>
+        <v>7.3032205560154067E-4</v>
       </c>
       <c r="L28">
-        <f>'OECD LEONTFD'!M35</f>
-        <v>1.2E-2</v>
+        <v>1.626862624329848E-3</v>
       </c>
       <c r="M28">
-        <f>'OECD LEONTFD'!N35</f>
-        <v>1.2E-2</v>
+        <v>2.4760973369044648E-3</v>
       </c>
       <c r="N28">
-        <f>'OECD LEONTFD'!O35</f>
-        <v>8.9999999999999993E-3</v>
+        <v>2.074655773841656E-3</v>
       </c>
       <c r="O28">
-        <f>'OECD LEONTFD'!P35</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1.5960442112412821E-3</v>
       </c>
       <c r="P28">
-        <f>'OECD LEONTFD'!Q35</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.2629389581688581E-4</v>
       </c>
       <c r="Q28">
-        <f>'OECD LEONTFD'!R35</f>
-        <v>8.9999999999999993E-3</v>
+        <v>9.7426167322022623E-4</v>
       </c>
       <c r="R28">
-        <f>'OECD LEONTFD'!S35</f>
-        <v>0.01</v>
+        <v>1.4289352204271181E-3</v>
       </c>
       <c r="S28">
-        <f>'OECD LEONTFD'!T35</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1.2788754597789481E-3</v>
       </c>
       <c r="T28">
-        <f>'OECD LEONTFD'!U35</f>
-        <v>1.0999999999999999E-2</v>
+        <v>1.518798383239513E-4</v>
       </c>
       <c r="U28">
-        <f>'OECD LEONTFD'!V35</f>
-        <v>0.01</v>
+        <v>1.31914691253501E-3</v>
       </c>
       <c r="V28">
-        <f>'OECD LEONTFD'!W35</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.922051026176519E-3</v>
       </c>
       <c r="W28">
-        <f>'OECD LEONTFD'!X35</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.7307657422606711E-3</v>
       </c>
       <c r="X28">
-        <f>'OECD LEONTFD'!Y35</f>
-        <v>1.7000000000000001E-2</v>
+        <v>2.475397334600411E-3</v>
       </c>
       <c r="Y28">
-        <f>'OECD LEONTFD'!Z35</f>
-        <v>1.9E-2</v>
+        <v>4.74004395586028E-3</v>
       </c>
       <c r="Z28">
-        <f>'OECD LEONTFD'!AA35</f>
-        <v>1.2999999999999999E-2</v>
+        <v>3.099079586113183E-3</v>
       </c>
       <c r="AA28">
-        <f>'OECD LEONTFD'!AB35</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.248463211990827E-3</v>
       </c>
       <c r="AB28">
-        <f>'OECD LEONTFD'!AC35</f>
-        <v>1.246</v>
+        <v>1.0536840280061639</v>
       </c>
       <c r="AC28">
-        <f>'OECD LEONTFD'!AD35</f>
-        <v>0.03</v>
+        <v>3.9687228289987126E-3</v>
       </c>
       <c r="AD28">
-        <f>'OECD LEONTFD'!AE35</f>
-        <v>2.1999999999999999E-2</v>
+        <v>4.2976565679118716E-3</v>
       </c>
       <c r="AE28">
-        <f>'OECD LEONTFD'!AF35</f>
-        <v>8.9999999999999993E-3</v>
+        <v>1.9737101402212522E-3</v>
       </c>
       <c r="AF28">
-        <f>'OECD LEONTFD'!AG35</f>
-        <v>0.02</v>
+        <v>1.07844153599078E-3</v>
       </c>
       <c r="AG28">
         <f>'OECD LEONTFD'!AH35</f>
@@ -10085,133 +9055,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="B29">
-        <f>'OECD LEONTFD'!C36</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.1028921303327607E-4</v>
       </c>
       <c r="C29">
-        <f>'OECD LEONTFD'!D36</f>
-        <v>1E-3</v>
+        <v>8.948564300664454E-5</v>
       </c>
       <c r="D29">
-        <f>'OECD LEONTFD'!E36</f>
-        <v>2E-3</v>
+        <v>3.242039500392601E-3</v>
       </c>
       <c r="E29">
-        <f>'OECD LEONTFD'!F36</f>
-        <v>2E-3</v>
+        <v>2.8326466375241011E-3</v>
       </c>
       <c r="F29">
-        <f>'OECD LEONTFD'!G36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.561617949884502E-3</v>
       </c>
       <c r="G29">
-        <f>'OECD LEONTFD'!H36</f>
-        <v>8.0000000000000002E-3</v>
+        <v>5.1031351770771955E-4</v>
       </c>
       <c r="H29">
-        <f>'OECD LEONTFD'!I36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>5.6968915285642444E-3</v>
       </c>
       <c r="I29">
-        <f>'OECD LEONTFD'!J36</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.6285395977186791E-3</v>
       </c>
       <c r="J29">
-        <f>'OECD LEONTFD'!K36</f>
-        <v>2E-3</v>
+        <v>1.691942860399932E-3</v>
       </c>
       <c r="K29">
-        <f>'OECD LEONTFD'!L36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>9.7210420236225694E-4</v>
       </c>
       <c r="L29">
-        <f>'OECD LEONTFD'!M36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>4.0070836399158961E-3</v>
       </c>
       <c r="M29">
-        <f>'OECD LEONTFD'!N36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.3394276215774396E-3</v>
       </c>
       <c r="N29">
-        <f>'OECD LEONTFD'!O36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.0671449419142072E-3</v>
       </c>
       <c r="O29">
-        <f>'OECD LEONTFD'!P36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>5.0607806229054633E-3</v>
       </c>
       <c r="P29">
-        <f>'OECD LEONTFD'!Q36</f>
-        <v>4.0000000000000001E-3</v>
+        <v>6.7234973972893765E-4</v>
       </c>
       <c r="Q29">
-        <f>'OECD LEONTFD'!R36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.3939772047342962E-3</v>
       </c>
       <c r="R29">
-        <f>'OECD LEONTFD'!S36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.8260779146665918E-3</v>
       </c>
       <c r="S29">
-        <f>'OECD LEONTFD'!T36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.0008554680102479E-3</v>
       </c>
       <c r="T29">
-        <f>'OECD LEONTFD'!U36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>5.3545079777990543E-4</v>
       </c>
       <c r="U29">
-        <f>'OECD LEONTFD'!V36</f>
-        <v>6.0000000000000001E-3</v>
+        <v>3.655631044487258E-3</v>
       </c>
       <c r="V29">
-        <f>'OECD LEONTFD'!W36</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.4135336710387704E-3</v>
       </c>
       <c r="W29">
-        <f>'OECD LEONTFD'!X36</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.1566146270506959E-3</v>
       </c>
       <c r="X29">
-        <f>'OECD LEONTFD'!Y36</f>
-        <v>7.0000000000000001E-3</v>
+        <v>2.02032956775982E-3</v>
       </c>
       <c r="Y29">
-        <f>'OECD LEONTFD'!Z36</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.4593528671740181E-3</v>
       </c>
       <c r="Z29">
-        <f>'OECD LEONTFD'!AA36</f>
-        <v>5.0000000000000001E-3</v>
+        <v>3.1301012978188231E-3</v>
       </c>
       <c r="AA29">
-        <f>'OECD LEONTFD'!AB36</f>
-        <v>1.4E-2</v>
+        <v>1.5441785665187991E-3</v>
       </c>
       <c r="AB29">
-        <f>'OECD LEONTFD'!AC36</f>
-        <v>1.6E-2</v>
+        <v>5.2262304564969211E-3</v>
       </c>
       <c r="AC29">
-        <f>'OECD LEONTFD'!AD36</f>
-        <v>1.0369999999999999</v>
+        <v>1.011855283338756</v>
       </c>
       <c r="AD29">
-        <f>'OECD LEONTFD'!AE36</f>
-        <v>1.0999999999999999E-2</v>
+        <v>4.6759146182942359E-3</v>
       </c>
       <c r="AE29">
-        <f>'OECD LEONTFD'!AF36</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.1651631561880871E-3</v>
       </c>
       <c r="AF29">
-        <f>'OECD LEONTFD'!AG36</f>
-        <v>0.01</v>
+        <v>2.27419992708776E-3</v>
       </c>
       <c r="AG29">
         <f>'OECD LEONTFD'!AH36</f>
@@ -10234,133 +9173,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="B30">
-        <f>'OECD LEONTFD'!C37</f>
-        <v>0.09</v>
+        <v>6.1180601290071043E-3</v>
       </c>
       <c r="C30">
-        <f>'OECD LEONTFD'!D37</f>
-        <v>0.01</v>
+        <v>4.206266200437978E-3</v>
       </c>
       <c r="D30">
-        <f>'OECD LEONTFD'!E37</f>
-        <v>0.02</v>
+        <v>0.11027274292059711</v>
       </c>
       <c r="E30">
-        <f>'OECD LEONTFD'!F37</f>
-        <v>2.4E-2</v>
+        <v>0.1640272041924912</v>
       </c>
       <c r="F30">
-        <f>'OECD LEONTFD'!G37</f>
-        <v>6.2E-2</v>
+        <v>6.5337174444457524E-3</v>
       </c>
       <c r="G30">
-        <f>'OECD LEONTFD'!H37</f>
-        <v>6.3E-2</v>
+        <v>1.5538189877994E-3</v>
       </c>
       <c r="H30">
-        <f>'OECD LEONTFD'!I37</f>
-        <v>5.3999999999999999E-2</v>
+        <v>5.9412476249953577E-3</v>
       </c>
       <c r="I30">
-        <f>'OECD LEONTFD'!J37</f>
-        <v>4.4999999999999998E-2</v>
+        <v>2.4618882258209819E-3</v>
       </c>
       <c r="J30">
-        <f>'OECD LEONTFD'!K37</f>
-        <v>1.2E-2</v>
+        <v>5.1051121001705231E-3</v>
       </c>
       <c r="K30">
-        <f>'OECD LEONTFD'!L37</f>
-        <v>4.2000000000000003E-2</v>
+        <v>4.0990622532860264E-3</v>
       </c>
       <c r="L30">
-        <f>'OECD LEONTFD'!M37</f>
-        <v>4.7E-2</v>
+        <v>8.0805278933061622E-3</v>
       </c>
       <c r="M30">
-        <f>'OECD LEONTFD'!N37</f>
-        <v>4.8000000000000001E-2</v>
+        <v>2.482602973837289E-2</v>
       </c>
       <c r="N30">
-        <f>'OECD LEONTFD'!O37</f>
-        <v>7.0000000000000007E-2</v>
+        <v>2.518416093465143E-2</v>
       </c>
       <c r="O30">
-        <f>'OECD LEONTFD'!P37</f>
-        <v>4.4999999999999998E-2</v>
+        <v>9.5723603956492046E-3</v>
       </c>
       <c r="P30">
-        <f>'OECD LEONTFD'!Q37</f>
-        <v>1.4E-2</v>
+        <v>1.6488928899275491E-3</v>
       </c>
       <c r="Q30">
-        <f>'OECD LEONTFD'!R37</f>
-        <v>3.3000000000000002E-2</v>
+        <v>9.3801353066619853E-3</v>
       </c>
       <c r="R30">
-        <f>'OECD LEONTFD'!S37</f>
-        <v>3.5999999999999997E-2</v>
+        <v>9.8003305936971083E-3</v>
       </c>
       <c r="S30">
-        <f>'OECD LEONTFD'!T37</f>
-        <v>4.1000000000000002E-2</v>
+        <v>1.086050324245005E-2</v>
       </c>
       <c r="T30">
-        <f>'OECD LEONTFD'!U37</f>
-        <v>0.06</v>
+        <v>1.568604902391232E-3</v>
       </c>
       <c r="U30">
-        <f>'OECD LEONTFD'!V37</f>
-        <v>4.4999999999999998E-2</v>
+        <v>8.5485410641551341E-3</v>
       </c>
       <c r="V30">
-        <f>'OECD LEONTFD'!W37</f>
-        <v>3.2000000000000001E-2</v>
+        <v>2.410651897002267E-2</v>
       </c>
       <c r="W30">
-        <f>'OECD LEONTFD'!X37</f>
-        <v>3.1E-2</v>
+        <v>5.9741983418791682E-3</v>
       </c>
       <c r="X30">
-        <f>'OECD LEONTFD'!Y37</f>
-        <v>6.2E-2</v>
+        <v>9.7016629683224342E-3</v>
       </c>
       <c r="Y30">
-        <f>'OECD LEONTFD'!Z37</f>
-        <v>6.8000000000000005E-2</v>
+        <v>3.055913098903967E-2</v>
       </c>
       <c r="Z30">
-        <f>'OECD LEONTFD'!AA37</f>
-        <v>5.8000000000000003E-2</v>
+        <v>9.5051325587021309E-3</v>
       </c>
       <c r="AA30">
-        <f>'OECD LEONTFD'!AB37</f>
-        <v>2.8000000000000001E-2</v>
+        <v>3.517360806897215E-3</v>
       </c>
       <c r="AB30">
-        <f>'OECD LEONTFD'!AC37</f>
-        <v>4.9000000000000002E-2</v>
+        <v>7.8589229389218196E-3</v>
       </c>
       <c r="AC30">
-        <f>'OECD LEONTFD'!AD37</f>
-        <v>4.2000000000000003E-2</v>
+        <v>3.1352261451021469E-3</v>
       </c>
       <c r="AD30">
-        <f>'OECD LEONTFD'!AE37</f>
-        <v>1.385</v>
+        <v>1.144941657912143</v>
       </c>
       <c r="AE30">
-        <f>'OECD LEONTFD'!AF37</f>
-        <v>7.1999999999999995E-2</v>
+        <v>2.9723175982532039E-2</v>
       </c>
       <c r="AF30">
-        <f>'OECD LEONTFD'!AG37</f>
-        <v>0.06</v>
+        <v>3.8059749074004418E-3</v>
       </c>
       <c r="AG30">
         <f>'OECD LEONTFD'!AH37</f>
@@ -10383,133 +9291,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="B31">
-        <f>'OECD LEONTFD'!C38</f>
-        <v>3.5999999999999997E-2</v>
+        <v>3.052054897654901E-2</v>
       </c>
       <c r="C31">
-        <f>'OECD LEONTFD'!D38</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.988297620501268E-3</v>
       </c>
       <c r="D31">
-        <f>'OECD LEONTFD'!E38</f>
-        <v>7.0000000000000001E-3</v>
+        <v>6.7079311568466859E-2</v>
       </c>
       <c r="E31">
-        <f>'OECD LEONTFD'!F38</f>
-        <v>7.0000000000000001E-3</v>
+        <v>9.5867903617889202E-2</v>
       </c>
       <c r="F31">
-        <f>'OECD LEONTFD'!G38</f>
-        <v>3.9E-2</v>
+        <v>9.6937532953066449E-3</v>
       </c>
       <c r="G31">
-        <f>'OECD LEONTFD'!H38</f>
-        <v>4.1000000000000002E-2</v>
+        <v>1.831599253233687E-3</v>
       </c>
       <c r="H31">
-        <f>'OECD LEONTFD'!I38</f>
-        <v>3.2000000000000001E-2</v>
+        <v>9.8847035454573545E-3</v>
       </c>
       <c r="I31">
-        <f>'OECD LEONTFD'!J38</f>
-        <v>2.7E-2</v>
+        <v>6.2569731456467411E-3</v>
       </c>
       <c r="J31">
-        <f>'OECD LEONTFD'!K38</f>
-        <v>6.0000000000000001E-3</v>
+        <v>6.7761679516509018E-3</v>
       </c>
       <c r="K31">
-        <f>'OECD LEONTFD'!L38</f>
-        <v>2.3E-2</v>
+        <v>7.3278535955221772E-3</v>
       </c>
       <c r="L31">
-        <f>'OECD LEONTFD'!M38</f>
-        <v>2.7E-2</v>
+        <v>1.29033920682765E-2</v>
       </c>
       <c r="M31">
-        <f>'OECD LEONTFD'!N38</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.8547035978062829E-2</v>
       </c>
       <c r="N31">
-        <f>'OECD LEONTFD'!O38</f>
-        <v>2.3E-2</v>
+        <v>1.563779683133178E-2</v>
       </c>
       <c r="O31">
-        <f>'OECD LEONTFD'!P38</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.4854537390777699E-2</v>
       </c>
       <c r="P31">
-        <f>'OECD LEONTFD'!Q38</f>
-        <v>1.4E-2</v>
+        <v>5.9454346665341979E-3</v>
       </c>
       <c r="Q31">
-        <f>'OECD LEONTFD'!R38</f>
-        <v>1.9E-2</v>
+        <v>8.1874288899551981E-3</v>
       </c>
       <c r="R31">
-        <f>'OECD LEONTFD'!S38</f>
-        <v>2.1000000000000001E-2</v>
+        <v>9.4953821250852635E-3</v>
       </c>
       <c r="S31">
-        <f>'OECD LEONTFD'!T38</f>
-        <v>2.5000000000000001E-2</v>
+        <v>1.236005223948399E-2</v>
       </c>
       <c r="T31">
-        <f>'OECD LEONTFD'!U38</f>
-        <v>3.1E-2</v>
+        <v>3.4492339518391729E-3</v>
       </c>
       <c r="U31">
-        <f>'OECD LEONTFD'!V38</f>
-        <v>3.2000000000000001E-2</v>
+        <v>1.064091636277719E-2</v>
       </c>
       <c r="V31">
-        <f>'OECD LEONTFD'!W38</f>
-        <v>1.7000000000000001E-2</v>
+        <v>1.544565012320105E-2</v>
       </c>
       <c r="W31">
-        <f>'OECD LEONTFD'!X38</f>
-        <v>2.1999999999999999E-2</v>
+        <v>1.532203100001611E-2</v>
       </c>
       <c r="X31">
-        <f>'OECD LEONTFD'!Y38</f>
-        <v>9.5000000000000001E-2</v>
+        <v>3.126182937804875E-2</v>
       </c>
       <c r="Y31">
-        <f>'OECD LEONTFD'!Z38</f>
-        <v>4.4999999999999998E-2</v>
+        <v>3.5536660415184267E-2</v>
       </c>
       <c r="Z31">
-        <f>'OECD LEONTFD'!AA38</f>
-        <v>8.8999999999999996E-2</v>
+        <v>4.8547129096932873E-2</v>
       </c>
       <c r="AA31">
-        <f>'OECD LEONTFD'!AB38</f>
-        <v>2.3E-2</v>
+        <v>8.3435011786753676E-3</v>
       </c>
       <c r="AB31">
-        <f>'OECD LEONTFD'!AC38</f>
-        <v>5.6000000000000001E-2</v>
+        <v>2.4447243555104279E-2</v>
       </c>
       <c r="AC31">
-        <f>'OECD LEONTFD'!AD38</f>
-        <v>0.04</v>
+        <v>1.503891956355672E-2</v>
       </c>
       <c r="AD31">
-        <f>'OECD LEONTFD'!AE38</f>
-        <v>2.4E-2</v>
+        <v>3.7726596822348558E-2</v>
       </c>
       <c r="AE31">
-        <f>'OECD LEONTFD'!AF38</f>
-        <v>1.1359999999999999</v>
+        <v>1.02042735134527</v>
       </c>
       <c r="AF31">
-        <f>'OECD LEONTFD'!AG38</f>
-        <v>4.8000000000000001E-2</v>
+        <v>7.0036350228289881E-3</v>
       </c>
       <c r="AG31">
         <f>'OECD LEONTFD'!AH38</f>
@@ -10532,133 +9409,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B32">
-        <f>'OECD LEONTFD'!C39</f>
-        <v>0.10100000000000001</v>
+        <v>1.5178160319619639E-2</v>
       </c>
       <c r="C32">
-        <f>'OECD LEONTFD'!D39</f>
-        <v>3.2000000000000001E-2</v>
+        <v>1.1321456984838951E-2</v>
       </c>
       <c r="D32">
-        <f>'OECD LEONTFD'!E39</f>
-        <v>3.9E-2</v>
+        <v>0.3677539632468621</v>
       </c>
       <c r="E32">
-        <f>'OECD LEONTFD'!F39</f>
-        <v>5.8999999999999997E-2</v>
+        <v>0.38261014897128659</v>
       </c>
       <c r="F32">
-        <f>'OECD LEONTFD'!G39</f>
-        <v>0.14199999999999999</v>
+        <v>5.1447775389894278E-2</v>
       </c>
       <c r="G32">
-        <f>'OECD LEONTFD'!H39</f>
-        <v>0.13700000000000001</v>
+        <v>1.1516734853240011E-2</v>
       </c>
       <c r="H32">
-        <f>'OECD LEONTFD'!I39</f>
-        <v>0.14199999999999999</v>
+        <v>6.0853620582601138E-2</v>
       </c>
       <c r="I32">
-        <f>'OECD LEONTFD'!J39</f>
-        <v>0.14399999999999999</v>
+        <v>3.1677832169445017E-2</v>
       </c>
       <c r="J32">
-        <f>'OECD LEONTFD'!K39</f>
-        <v>4.2000000000000003E-2</v>
+        <v>6.8195572155797232E-2</v>
       </c>
       <c r="K32">
-        <f>'OECD LEONTFD'!L39</f>
-        <v>0.11600000000000001</v>
+        <v>5.18942824916186E-2</v>
       </c>
       <c r="L32">
-        <f>'OECD LEONTFD'!M39</f>
-        <v>0.13600000000000001</v>
+        <v>6.7057998324530924E-2</v>
       </c>
       <c r="M32">
-        <f>'OECD LEONTFD'!N39</f>
-        <v>0.13200000000000001</v>
+        <v>0.10493271223523711</v>
       </c>
       <c r="N32">
-        <f>'OECD LEONTFD'!O39</f>
-        <v>0.104</v>
+        <v>0.12016832353550159</v>
       </c>
       <c r="O32">
-        <f>'OECD LEONTFD'!P39</f>
-        <v>0.121</v>
+        <v>8.9866507008322674E-2</v>
       </c>
       <c r="P32">
-        <f>'OECD LEONTFD'!Q39</f>
-        <v>7.0999999999999994E-2</v>
+        <v>4.0368244309896092E-2</v>
       </c>
       <c r="Q32">
-        <f>'OECD LEONTFD'!R39</f>
-        <v>0.107</v>
+        <v>4.3646112914564911E-2</v>
       </c>
       <c r="R32">
-        <f>'OECD LEONTFD'!S39</f>
-        <v>0.109</v>
+        <v>8.6094359200983087E-2</v>
       </c>
       <c r="S32">
-        <f>'OECD LEONTFD'!T39</f>
-        <v>0.14099999999999999</v>
+        <v>9.5671545950679129E-2</v>
       </c>
       <c r="T32">
-        <f>'OECD LEONTFD'!U39</f>
-        <v>0.13700000000000001</v>
+        <v>1.4208217842651029E-2</v>
       </c>
       <c r="U32">
-        <f>'OECD LEONTFD'!V39</f>
-        <v>0.112</v>
+        <v>5.7800963126480233E-2</v>
       </c>
       <c r="V32">
-        <f>'OECD LEONTFD'!W39</f>
-        <v>0.08</v>
+        <v>9.9089184767678459E-2</v>
       </c>
       <c r="W32">
-        <f>'OECD LEONTFD'!X39</f>
-        <v>0.11</v>
+        <v>4.6792483927367089E-2</v>
       </c>
       <c r="X32">
-        <f>'OECD LEONTFD'!Y39</f>
-        <v>0.16300000000000001</v>
+        <v>6.8786239892340201E-2</v>
       </c>
       <c r="Y32">
-        <f>'OECD LEONTFD'!Z39</f>
-        <v>0.14599999999999999</v>
+        <v>7.6773620943710388E-2</v>
       </c>
       <c r="Z32">
-        <f>'OECD LEONTFD'!AA39</f>
-        <v>0.14599999999999999</v>
+        <v>0.1059380155952101</v>
       </c>
       <c r="AA32">
-        <f>'OECD LEONTFD'!AB39</f>
-        <v>0.111</v>
+        <v>3.5168898655075762E-2</v>
       </c>
       <c r="AB32">
-        <f>'OECD LEONTFD'!AC39</f>
-        <v>0.16500000000000001</v>
+        <v>9.8509764613719616E-2</v>
       </c>
       <c r="AC32">
-        <f>'OECD LEONTFD'!AD39</f>
-        <v>0.154</v>
+        <v>6.9050973196482707E-2</v>
       </c>
       <c r="AD32">
-        <f>'OECD LEONTFD'!AE39</f>
-        <v>0.11899999999999999</v>
+        <v>8.4110791030740706E-2</v>
       </c>
       <c r="AE32">
-        <f>'OECD LEONTFD'!AF39</f>
-        <v>9.1999999999999998E-2</v>
+        <v>5.3601684809838457E-2</v>
       </c>
       <c r="AF32">
-        <f>'OECD LEONTFD'!AG39</f>
-        <v>1.226</v>
+        <v>1.0262606914746111</v>
       </c>
       <c r="AG32">
         <f>'OECD LEONTFD'!AH39</f>
@@ -10681,133 +9527,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="B33">
-        <f>'OECD LEONTFD'!C40</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.3003180507937809E-4</v>
       </c>
       <c r="C33">
-        <f>'OECD LEONTFD'!D40</f>
-        <v>2E-3</v>
+        <v>4.164663120236845E-5</v>
       </c>
       <c r="D33">
-        <f>'OECD LEONTFD'!E40</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.5338324236708681E-3</v>
       </c>
       <c r="E33">
-        <f>'OECD LEONTFD'!F40</f>
-        <v>2E-3</v>
+        <v>1.2527757317730591E-3</v>
       </c>
       <c r="F33">
-        <f>'OECD LEONTFD'!G40</f>
-        <v>1.0999999999999999E-2</v>
+        <v>8.5186545107133343E-4</v>
       </c>
       <c r="G33">
-        <f>'OECD LEONTFD'!H40</f>
-        <v>2.1000000000000001E-2</v>
+        <v>1.721780769791006E-4</v>
       </c>
       <c r="H33">
-        <f>'OECD LEONTFD'!I40</f>
-        <v>1.2E-2</v>
+        <v>8.1345973447282836E-4</v>
       </c>
       <c r="I33">
-        <f>'OECD LEONTFD'!J40</f>
-        <v>1.2999999999999999E-2</v>
+        <v>5.4839562864720875E-4</v>
       </c>
       <c r="J33">
-        <f>'OECD LEONTFD'!K40</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.524878307849408E-3</v>
       </c>
       <c r="K33">
-        <f>'OECD LEONTFD'!L40</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.1178576967373331E-3</v>
       </c>
       <c r="L33">
-        <f>'OECD LEONTFD'!M40</f>
-        <v>1.0999999999999999E-2</v>
+        <v>9.7950579942061031E-4</v>
       </c>
       <c r="M33">
-        <f>'OECD LEONTFD'!N40</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.587148118023749E-3</v>
       </c>
       <c r="N33">
-        <f>'OECD LEONTFD'!O40</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.9827307442005101E-3</v>
       </c>
       <c r="O33">
-        <f>'OECD LEONTFD'!P40</f>
-        <v>0.01</v>
+        <v>8.0305962839451086E-4</v>
       </c>
       <c r="P33">
-        <f>'OECD LEONTFD'!Q40</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.090172069245884E-4</v>
       </c>
       <c r="Q33">
-        <f>'OECD LEONTFD'!R40</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.449548779932343E-3</v>
       </c>
       <c r="R33">
-        <f>'OECD LEONTFD'!S40</f>
-        <v>7.0000000000000001E-3</v>
+        <v>1.215648126407411E-3</v>
       </c>
       <c r="S33">
-        <f>'OECD LEONTFD'!T40</f>
-        <v>8.9999999999999993E-3</v>
+        <v>7.4250012956437626E-4</v>
       </c>
       <c r="T33">
-        <f>'OECD LEONTFD'!U40</f>
-        <v>1.4E-2</v>
+        <v>6.3145585323474157E-5</v>
       </c>
       <c r="U33">
-        <f>'OECD LEONTFD'!V40</f>
-        <v>1.2E-2</v>
+        <v>5.4836852535223787E-4</v>
       </c>
       <c r="V33">
-        <f>'OECD LEONTFD'!W40</f>
-        <v>1.7999999999999999E-2</v>
+        <v>8.349237091384569E-3</v>
       </c>
       <c r="W33">
-        <f>'OECD LEONTFD'!X40</f>
-        <v>5.0000000000000001E-3</v>
+        <v>2.422215210390629E-4</v>
       </c>
       <c r="X33">
-        <f>'OECD LEONTFD'!Y40</f>
-        <v>8.9999999999999993E-3</v>
+        <v>2.6724972890011731E-3</v>
       </c>
       <c r="Y33">
-        <f>'OECD LEONTFD'!Z40</f>
-        <v>2.5999999999999999E-2</v>
+        <v>8.0955642032559134E-3</v>
       </c>
       <c r="Z33">
-        <f>'OECD LEONTFD'!AA40</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.5368800417813961E-3</v>
       </c>
       <c r="AA33">
-        <f>'OECD LEONTFD'!AB40</f>
-        <v>8.9999999999999993E-3</v>
+        <v>6.4976845487182858E-4</v>
       </c>
       <c r="AB33">
-        <f>'OECD LEONTFD'!AC40</f>
-        <v>2.1999999999999999E-2</v>
+        <v>6.358782531723534E-4</v>
       </c>
       <c r="AC33">
-        <f>'OECD LEONTFD'!AD40</f>
-        <v>1.4E-2</v>
+        <v>1.118078253003388E-3</v>
       </c>
       <c r="AD33">
-        <f>'OECD LEONTFD'!AE40</f>
-        <v>7.0000000000000001E-3</v>
+        <v>4.1672347737493811E-3</v>
       </c>
       <c r="AE33">
-        <f>'OECD LEONTFD'!AF40</f>
-        <v>5.0000000000000001E-3</v>
+        <v>7.0309964409168428E-4</v>
       </c>
       <c r="AF33">
-        <f>'OECD LEONTFD'!AG40</f>
-        <v>2.4E-2</v>
+        <v>4.4359317933180238E-4</v>
       </c>
       <c r="AG33">
         <f>'OECD LEONTFD'!AH40</f>
@@ -10830,133 +9645,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B34">
-        <f>'OECD LEONTFD'!C41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>3.2810708816146327E-5</v>
       </c>
       <c r="C34">
-        <f>'OECD LEONTFD'!D41</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.6470510149780318E-6</v>
       </c>
       <c r="D34">
-        <f>'OECD LEONTFD'!E41</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.8217322446696909E-4</v>
       </c>
       <c r="E34">
-        <f>'OECD LEONTFD'!F41</f>
-        <v>3.0000000000000001E-3</v>
+        <v>9.8694289420558348E-5</v>
       </c>
       <c r="F34">
-        <f>'OECD LEONTFD'!G41</f>
-        <v>1.4999999999999999E-2</v>
+        <v>2.8356313058889539E-5</v>
       </c>
       <c r="G34">
-        <f>'OECD LEONTFD'!H41</f>
-        <v>1.2999999999999999E-2</v>
+        <v>5.8227346870287867E-6</v>
       </c>
       <c r="H34">
-        <f>'OECD LEONTFD'!I41</f>
-        <v>1.2E-2</v>
+        <v>3.6218165338865088E-5</v>
       </c>
       <c r="I34">
-        <f>'OECD LEONTFD'!J41</f>
-        <v>1.2999999999999999E-2</v>
+        <v>1.193720174925662E-4</v>
       </c>
       <c r="J34">
-        <f>'OECD LEONTFD'!K41</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.35860212774493E-4</v>
       </c>
       <c r="K34">
-        <f>'OECD LEONTFD'!L41</f>
-        <v>1.2E-2</v>
+        <v>2.710967970262445E-5</v>
       </c>
       <c r="L34">
-        <f>'OECD LEONTFD'!M41</f>
-        <v>1.0999999999999999E-2</v>
+        <v>4.9309669128434713E-5</v>
       </c>
       <c r="M34">
-        <f>'OECD LEONTFD'!N41</f>
-        <v>8.0000000000000002E-3</v>
+        <v>6.0283901423697037E-5</v>
       </c>
       <c r="N34">
-        <f>'OECD LEONTFD'!O41</f>
-        <v>0.01</v>
+        <v>7.2453702162684651E-5</v>
       </c>
       <c r="O34">
-        <f>'OECD LEONTFD'!P41</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.4938418730273223E-5</v>
       </c>
       <c r="P34">
-        <f>'OECD LEONTFD'!Q41</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.054454781229075E-5</v>
       </c>
       <c r="Q34">
-        <f>'OECD LEONTFD'!R41</f>
-        <v>7.0000000000000001E-3</v>
+        <v>3.0897451317653997E-5</v>
       </c>
       <c r="R34">
-        <f>'OECD LEONTFD'!S41</f>
-        <v>8.0000000000000002E-3</v>
+        <v>3.6458827960540273E-5</v>
       </c>
       <c r="S34">
-        <f>'OECD LEONTFD'!T41</f>
-        <v>8.9999999999999993E-3</v>
+        <v>3.7239809287963508E-5</v>
       </c>
       <c r="T34">
-        <f>'OECD LEONTFD'!U41</f>
-        <v>1.0999999999999999E-2</v>
+        <v>4.0208794669350089E-6</v>
       </c>
       <c r="U34">
-        <f>'OECD LEONTFD'!V41</f>
-        <v>8.0000000000000002E-3</v>
+        <v>2.7227205888856218E-5</v>
       </c>
       <c r="V34">
-        <f>'OECD LEONTFD'!W41</f>
-        <v>7.0000000000000001E-3</v>
+        <v>6.2794163932871792E-4</v>
       </c>
       <c r="W34">
-        <f>'OECD LEONTFD'!X41</f>
-        <v>6.0000000000000001E-3</v>
+        <v>1.9440844112457511E-5</v>
       </c>
       <c r="X34">
-        <f>'OECD LEONTFD'!Y41</f>
-        <v>2.9000000000000001E-2</v>
+        <v>1.172429213852748E-3</v>
       </c>
       <c r="Y34">
-        <f>'OECD LEONTFD'!Z41</f>
-        <v>1.4E-2</v>
+        <v>2.7000857689262348E-4</v>
       </c>
       <c r="Z34">
-        <f>'OECD LEONTFD'!AA41</f>
-        <v>8.9999999999999993E-3</v>
+        <v>4.8106365015021033E-5</v>
       </c>
       <c r="AA34">
-        <f>'OECD LEONTFD'!AB41</f>
-        <v>6.0000000000000001E-3</v>
+        <v>2.011289673065036E-5</v>
       </c>
       <c r="AB34">
-        <f>'OECD LEONTFD'!AC41</f>
-        <v>0.02</v>
+        <v>1.5491336209539071E-4</v>
       </c>
       <c r="AC34">
-        <f>'OECD LEONTFD'!AD41</f>
-        <v>2.8000000000000001E-2</v>
+        <v>2.21945114651303E-4</v>
       </c>
       <c r="AD34">
-        <f>'OECD LEONTFD'!AE41</f>
-        <v>0.01</v>
+        <v>5.0497432587245052E-5</v>
       </c>
       <c r="AE34">
-        <f>'OECD LEONTFD'!AF41</f>
-        <v>4.0000000000000001E-3</v>
+        <v>2.7321596825878081E-5</v>
       </c>
       <c r="AF34">
-        <f>'OECD LEONTFD'!AG41</f>
-        <v>2.1999999999999999E-2</v>
+        <v>2.0331578685417871E-4</v>
       </c>
       <c r="AG34">
         <f>'OECD LEONTFD'!AH41</f>
@@ -10979,133 +9763,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="B35">
-        <f>'OECD LEONTFD'!C42</f>
-        <v>0</v>
+        <v>4.6821226269151932E-7</v>
       </c>
       <c r="C35">
-        <f>'OECD LEONTFD'!D42</f>
-        <v>0</v>
+        <v>1.4826689560458729E-7</v>
       </c>
       <c r="D35">
-        <f>'OECD LEONTFD'!E42</f>
-        <v>0</v>
+        <v>6.5740802558327311E-6</v>
       </c>
       <c r="E35">
-        <f>'OECD LEONTFD'!F42</f>
-        <v>0</v>
+        <v>4.8654769739802031E-6</v>
       </c>
       <c r="F35">
-        <f>'OECD LEONTFD'!G42</f>
-        <v>0</v>
+        <v>1.671685144334558E-6</v>
       </c>
       <c r="G35">
-        <f>'OECD LEONTFD'!H42</f>
-        <v>0</v>
+        <v>3.4579872828984592E-7</v>
       </c>
       <c r="H35">
-        <f>'OECD LEONTFD'!I42</f>
-        <v>0</v>
+        <v>1.7010797442387969E-6</v>
       </c>
       <c r="I35">
-        <f>'OECD LEONTFD'!J42</f>
-        <v>0</v>
+        <v>1.0669719081993319E-6</v>
       </c>
       <c r="J35">
-        <f>'OECD LEONTFD'!K42</f>
-        <v>0</v>
+        <v>2.8062475882436361E-6</v>
       </c>
       <c r="K35">
-        <f>'OECD LEONTFD'!L42</f>
-        <v>0</v>
+        <v>2.0582578983346159E-6</v>
       </c>
       <c r="L35">
-        <f>'OECD LEONTFD'!M42</f>
-        <v>0</v>
+        <v>1.997401718402908E-6</v>
       </c>
       <c r="M35">
-        <f>'OECD LEONTFD'!N42</f>
-        <v>0</v>
+        <v>3.1886123181714359E-6</v>
       </c>
       <c r="N35">
-        <f>'OECD LEONTFD'!O42</f>
-        <v>1E-3</v>
+        <v>3.8941181084871919E-6</v>
       </c>
       <c r="O35">
-        <f>'OECD LEONTFD'!P42</f>
-        <v>0</v>
+        <v>1.8981717616823649E-6</v>
       </c>
       <c r="P35">
-        <f>'OECD LEONTFD'!Q42</f>
-        <v>0</v>
+        <v>4.683127529765362E-7</v>
       </c>
       <c r="Q35">
-        <f>'OECD LEONTFD'!R42</f>
-        <v>0</v>
+        <v>2.4925803905785742E-6</v>
       </c>
       <c r="R35">
-        <f>'OECD LEONTFD'!S42</f>
-        <v>0</v>
+        <v>2.4774329571080299E-6</v>
       </c>
       <c r="S35">
-        <f>'OECD LEONTFD'!T42</f>
-        <v>0</v>
+        <v>1.847784396940379E-6</v>
       </c>
       <c r="T35">
-        <f>'OECD LEONTFD'!U42</f>
-        <v>0</v>
+        <v>2.0369600808300251E-7</v>
       </c>
       <c r="U35">
-        <f>'OECD LEONTFD'!V42</f>
-        <v>0</v>
+        <v>1.2734044771236399E-6</v>
       </c>
       <c r="V35">
-        <f>'OECD LEONTFD'!W42</f>
-        <v>0</v>
+        <v>1.317538306439421E-5</v>
       </c>
       <c r="W35">
-        <f>'OECD LEONTFD'!X42</f>
-        <v>0</v>
+        <v>7.2659624203783663E-7</v>
       </c>
       <c r="X35">
-        <f>'OECD LEONTFD'!Y42</f>
-        <v>0</v>
+        <v>4.5370333709785946E-6</v>
       </c>
       <c r="Y35">
-        <f>'OECD LEONTFD'!Z42</f>
-        <v>0</v>
+        <v>1.2657948777206799E-5</v>
       </c>
       <c r="Z35">
-        <f>'OECD LEONTFD'!AA42</f>
-        <v>0</v>
+        <v>6.193755649780309E-6</v>
       </c>
       <c r="AA35">
-        <f>'OECD LEONTFD'!AB42</f>
-        <v>0</v>
+        <v>1.6599132224748601E-6</v>
       </c>
       <c r="AB35">
-        <f>'OECD LEONTFD'!AC42</f>
-        <v>0</v>
+        <v>3.5144632041192139E-6</v>
       </c>
       <c r="AC35">
-        <f>'OECD LEONTFD'!AD42</f>
-        <v>0</v>
+        <v>2.2186610861396191E-6</v>
       </c>
       <c r="AD35">
-        <f>'OECD LEONTFD'!AE42</f>
-        <v>0</v>
+        <v>6.9063370814085363E-6</v>
       </c>
       <c r="AE35">
-        <f>'OECD LEONTFD'!AF42</f>
-        <v>0</v>
+        <v>1.5387444785406359E-6</v>
       </c>
       <c r="AF35">
-        <f>'OECD LEONTFD'!AG42</f>
-        <v>0</v>
+        <v>8.4010987217987172E-6</v>
       </c>
       <c r="AG35">
         <f>'OECD LEONTFD'!AH42</f>
@@ -11128,133 +9881,102 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="B36">
-        <f>'OECD LEONTFD'!C43</f>
-        <v>2E-3</v>
+        <v>1.113682233176388E-4</v>
       </c>
       <c r="C36">
-        <f>'OECD LEONTFD'!D43</f>
-        <v>1E-3</v>
+        <v>1.384477767467938E-5</v>
       </c>
       <c r="D36">
-        <f>'OECD LEONTFD'!E43</f>
-        <v>2E-3</v>
+        <v>4.9567597438912993E-4</v>
       </c>
       <c r="E36">
-        <f>'OECD LEONTFD'!F43</f>
-        <v>1E-3</v>
+        <v>1.1826216814538959E-3</v>
       </c>
       <c r="F36">
-        <f>'OECD LEONTFD'!G43</f>
-        <v>2E-3</v>
+        <v>1.8733952282251219E-4</v>
       </c>
       <c r="G36">
-        <f>'OECD LEONTFD'!H43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>3.3972292102890988E-5</v>
       </c>
       <c r="H36">
-        <f>'OECD LEONTFD'!I43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>3.2217655879806378E-4</v>
       </c>
       <c r="I36">
-        <f>'OECD LEONTFD'!J43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>1.343066089449392E-4</v>
       </c>
       <c r="J36">
-        <f>'OECD LEONTFD'!K43</f>
-        <v>1E-3</v>
+        <v>2.7541400843743058E-4</v>
       </c>
       <c r="K36">
-        <f>'OECD LEONTFD'!L43</f>
-        <v>2E-3</v>
+        <v>9.0036996432476193E-5</v>
       </c>
       <c r="L36">
-        <f>'OECD LEONTFD'!M43</f>
-        <v>2E-3</v>
+        <v>3.513116460261418E-4</v>
       </c>
       <c r="M36">
-        <f>'OECD LEONTFD'!N43</f>
-        <v>2E-3</v>
+        <v>3.9988690952229018E-4</v>
       </c>
       <c r="N36">
-        <f>'OECD LEONTFD'!O43</f>
-        <v>4.0000000000000001E-3</v>
+        <v>4.36676653590624E-4</v>
       </c>
       <c r="O36">
-        <f>'OECD LEONTFD'!P43</f>
-        <v>2E-3</v>
+        <v>2.8082849981725811E-4</v>
       </c>
       <c r="P36">
-        <f>'OECD LEONTFD'!Q43</f>
-        <v>1E-3</v>
+        <v>3.4358425543580807E-5</v>
       </c>
       <c r="Q36">
-        <f>'OECD LEONTFD'!R43</f>
-        <v>2E-3</v>
+        <v>1.233958629606293E-4</v>
       </c>
       <c r="R36">
-        <f>'OECD LEONTFD'!S43</f>
-        <v>2E-3</v>
+        <v>2.4089833946615299E-4</v>
       </c>
       <c r="S36">
-        <f>'OECD LEONTFD'!T43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>2.4672573589385908E-4</v>
       </c>
       <c r="T36">
-        <f>'OECD LEONTFD'!U43</f>
-        <v>2E-3</v>
+        <v>2.9916874286793149E-5</v>
       </c>
       <c r="U36">
-        <f>'OECD LEONTFD'!V43</f>
-        <v>2E-3</v>
+        <v>2.2523484770179539E-4</v>
       </c>
       <c r="V36">
-        <f>'OECD LEONTFD'!W43</f>
-        <v>2E-3</v>
+        <v>3.689393139646822E-4</v>
       </c>
       <c r="W36">
-        <f>'OECD LEONTFD'!X43</f>
-        <v>2E-3</v>
+        <v>1.4020141203275791E-4</v>
       </c>
       <c r="X36">
-        <f>'OECD LEONTFD'!Y43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.7395196729252989E-4</v>
       </c>
       <c r="Y36">
-        <f>'OECD LEONTFD'!Z43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>5.9111590284338167E-4</v>
       </c>
       <c r="Z36">
-        <f>'OECD LEONTFD'!AA43</f>
-        <v>5.0000000000000001E-3</v>
+        <v>1.285176467528223E-3</v>
       </c>
       <c r="AA36">
-        <f>'OECD LEONTFD'!AB43</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.6642636758216309E-3</v>
       </c>
       <c r="AB36">
-        <f>'OECD LEONTFD'!AC43</f>
-        <v>4.0000000000000001E-3</v>
+        <v>1.55382846383968E-2</v>
       </c>
       <c r="AC36">
-        <f>'OECD LEONTFD'!AD43</f>
-        <v>4.0000000000000001E-3</v>
+        <v>3.5723733592238772E-4</v>
       </c>
       <c r="AD36">
-        <f>'OECD LEONTFD'!AE43</f>
-        <v>2E-3</v>
+        <v>7.8293204938057511E-4</v>
       </c>
       <c r="AE36">
-        <f>'OECD LEONTFD'!AF43</f>
-        <v>1E-3</v>
+        <v>7.9498986296541014E-4</v>
       </c>
       <c r="AF36">
-        <f>'OECD LEONTFD'!AG43</f>
-        <v>3.0000000000000001E-3</v>
+        <v>4.4763338795888102E-4</v>
       </c>
       <c r="AG36">
         <f>'OECD LEONTFD'!AH43</f>
@@ -11277,9 +9999,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="B37">
         <f>'OECD LEONTFD'!C44</f>
@@ -11428,6 +10150,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>